--- a/BackTest/2019-10-17 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-17 BackTest ANKR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1700000000000004</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>23.07692307692287</v>
+      </c>
       <c r="L12" t="n">
         <v>3.114</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1700000000000004</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>3.117</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.1900000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>74.99999999999959</v>
+      </c>
       <c r="L14" t="n">
         <v>3.119</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2000000000000002</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>55.55555555555567</v>
+      </c>
       <c r="L15" t="n">
         <v>3.124</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.2100000000000004</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>39.99999999999982</v>
+      </c>
       <c r="L16" t="n">
         <v>3.128</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.2600000000000002</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-6.666666666666508</v>
+      </c>
       <c r="L17" t="n">
         <v>3.127</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.2600000000000002</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-60</v>
+      </c>
       <c r="L18" t="n">
         <v>3.126</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.2700000000000005</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-63.63636363636371</v>
+      </c>
       <c r="L19" t="n">
         <v>3.119</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-28.57142857142848</v>
+      </c>
       <c r="L20" t="n">
         <v>3.115</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-23.07692307692287</v>
+      </c>
       <c r="L21" t="n">
         <v>3.111</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.3300000000000005</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>3.111</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.3600000000000003</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-29.41176470588226</v>
       </c>
       <c r="L23" t="n">
         <v>3.108</v>
@@ -1466,7 +1488,7 @@
         <v>0.3700000000000006</v>
       </c>
       <c r="K24" t="n">
-        <v>-13.33333333333331</v>
+        <v>-29.41176470588244</v>
       </c>
       <c r="L24" t="n">
         <v>3.102</v>
@@ -1515,7 +1537,7 @@
         <v>0.3700000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L25" t="n">
         <v>3.097</v>
@@ -1564,7 +1586,7 @@
         <v>0.3900000000000006</v>
       </c>
       <c r="K26" t="n">
-        <v>7.142857142857132</v>
+        <v>23.07692307692287</v>
       </c>
       <c r="L26" t="n">
         <v>3.095</v>
@@ -1613,7 +1635,7 @@
         <v>0.4200000000000004</v>
       </c>
       <c r="K27" t="n">
-        <v>-3.22580645161283</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>3.095</v>
@@ -1662,7 +1684,7 @@
         <v>0.4200000000000004</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.22580645161283</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L28" t="n">
         <v>3.095</v>
@@ -1711,7 +1733,7 @@
         <v>0.4400000000000004</v>
       </c>
       <c r="K29" t="n">
-        <v>-28.57142857142857</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L29" t="n">
         <v>3.094</v>
@@ -1760,7 +1782,7 @@
         <v>0.4700000000000006</v>
       </c>
       <c r="K30" t="n">
-        <v>-35.48387096774198</v>
+        <v>-41.17647058823548</v>
       </c>
       <c r="L30" t="n">
         <v>3.087000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>0.5000000000000009</v>
       </c>
       <c r="K31" t="n">
-        <v>-23.52941176470585</v>
+        <v>-41.17647058823511</v>
       </c>
       <c r="L31" t="n">
         <v>3.083000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>0.5500000000000012</v>
       </c>
       <c r="K32" t="n">
-        <v>-31.57894736842102</v>
+        <v>-47.36842105263153</v>
       </c>
       <c r="L32" t="n">
         <v>3.071000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>0.5700000000000012</v>
       </c>
       <c r="K33" t="n">
-        <v>-24.99999999999997</v>
+        <v>-29.99999999999993</v>
       </c>
       <c r="L33" t="n">
         <v>3.064</v>
@@ -1962,7 +1984,7 @@
         <v>0.5700000000000012</v>
       </c>
       <c r="K34" t="n">
-        <v>-31.57894736842102</v>
+        <v>-29.99999999999993</v>
       </c>
       <c r="L34" t="n">
         <v>3.058</v>
@@ -2013,7 +2035,7 @@
         <v>0.5900000000000012</v>
       </c>
       <c r="K35" t="n">
-        <v>-23.07692307692309</v>
+        <v>-29.99999999999993</v>
       </c>
       <c r="L35" t="n">
         <v>3.054</v>
@@ -2064,7 +2086,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K36" t="n">
-        <v>-14.99999999999998</v>
+        <v>-5.26315789473694</v>
       </c>
       <c r="L36" t="n">
         <v>3.05</v>
@@ -2115,7 +2137,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K37" t="n">
-        <v>-2.857142857142915</v>
+        <v>-5.26315789473694</v>
       </c>
       <c r="L37" t="n">
         <v>3.049</v>
@@ -2166,7 +2188,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.857142857142915</v>
+        <v>5.882352941176317</v>
       </c>
       <c r="L38" t="n">
         <v>3.048</v>
@@ -2217,7 +2239,7 @@
         <v>0.620000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.857142857142792</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L39" t="n">
         <v>3.048000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>0.620000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>3.051000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>0.6300000000000008</v>
       </c>
       <c r="K41" t="n">
-        <v>-9.090909090909165</v>
+        <v>75.00000000000043</v>
       </c>
       <c r="L41" t="n">
         <v>3.052</v>
@@ -2370,7 +2392,7 @@
         <v>0.6900000000000008</v>
       </c>
       <c r="K42" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L42" t="n">
         <v>3.052000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>0.7200000000000011</v>
       </c>
       <c r="K43" t="n">
-        <v>-16.66666666666665</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L43" t="n">
         <v>3.053000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>0.7400000000000011</v>
       </c>
       <c r="K44" t="n">
-        <v>-18.91891891891885</v>
+        <v>-19.99999999999988</v>
       </c>
       <c r="L44" t="n">
         <v>3.052000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>0.7600000000000011</v>
       </c>
       <c r="K45" t="n">
-        <v>-12.82051282051276</v>
+        <v>-19.99999999999988</v>
       </c>
       <c r="L45" t="n">
         <v>3.051000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>0.7700000000000009</v>
       </c>
       <c r="K46" t="n">
-        <v>-15.78947368421053</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L46" t="n">
         <v>3.049000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K47" t="n">
-        <v>-11.11111111111111</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L47" t="n">
         <v>3.046000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111111</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L48" t="n">
         <v>3.043000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K49" t="n">
-        <v>-5.88235294117647</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L49" t="n">
         <v>3.041000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K50" t="n">
-        <v>3.225806451612977</v>
+        <v>-19.99999999999988</v>
       </c>
       <c r="L50" t="n">
         <v>3.039000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.142857142857154</v>
+        <v>33.33333333333366</v>
       </c>
       <c r="L51" t="n">
         <v>3.036000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="K52" t="n">
-        <v>4.000000000000099</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L52" t="n">
         <v>3.037000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>0.8100000000000009</v>
       </c>
       <c r="K53" t="n">
-        <v>-8.333333333333348</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L53" t="n">
         <v>3.034000000000002</v>
@@ -2982,7 +3004,7 @@
         <v>0.8100000000000009</v>
       </c>
       <c r="K54" t="n">
-        <v>-8.333333333333348</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L54" t="n">
         <v>3.033000000000002</v>
@@ -3033,7 +3055,7 @@
         <v>0.8200000000000007</v>
       </c>
       <c r="K55" t="n">
-        <v>-21.73913043478257</v>
+        <v>-100</v>
       </c>
       <c r="L55" t="n">
         <v>3.029000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>0.8200000000000007</v>
       </c>
       <c r="K56" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L56" t="n">
         <v>3.024000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>0.8500000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>-41.66666666666664</v>
+        <v>-100</v>
       </c>
       <c r="L57" t="n">
         <v>3.017000000000002</v>
@@ -3186,7 +3208,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="K58" t="n">
-        <v>-17.24137931034482</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L58" t="n">
         <v>3.015000000000002</v>
@@ -3237,7 +3259,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>-14.28571428571433</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L59" t="n">
         <v>3.013000000000003</v>
@@ -3288,7 +3310,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="K60" t="n">
-        <v>-14.28571428571433</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L60" t="n">
         <v>3.011000000000003</v>
@@ -3339,7 +3361,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>-14.28571428571433</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L61" t="n">
         <v>3.010000000000003</v>
@@ -3390,7 +3412,7 @@
         <v>0.96</v>
       </c>
       <c r="K62" t="n">
-        <v>-11.11111111111108</v>
+        <v>-20</v>
       </c>
       <c r="L62" t="n">
         <v>3.006000000000003</v>
@@ -3441,7 +3463,7 @@
         <v>0.98</v>
       </c>
       <c r="K63" t="n">
-        <v>-15.38461538461546</v>
+        <v>-5.882352941176379</v>
       </c>
       <c r="L63" t="n">
         <v>3.005000000000003</v>
@@ -3492,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>-15.38461538461546</v>
+        <v>-11.11111111111117</v>
       </c>
       <c r="L64" t="n">
         <v>3.002000000000003</v>
@@ -3543,7 +3565,7 @@
         <v>1.01</v>
       </c>
       <c r="K65" t="n">
-        <v>-28.00000000000009</v>
+        <v>-15.7894736842105</v>
       </c>
       <c r="L65" t="n">
         <v>2.999000000000003</v>
@@ -3594,7 +3616,7 @@
         <v>1.02</v>
       </c>
       <c r="K66" t="n">
-        <v>-36.00000000000007</v>
+        <v>-5.882352941176625</v>
       </c>
       <c r="L66" t="n">
         <v>2.995000000000003</v>
@@ -3645,7 +3667,7 @@
         <v>1.06</v>
       </c>
       <c r="K67" t="n">
-        <v>-42.857142857143</v>
+        <v>-62.50000000000018</v>
       </c>
       <c r="L67" t="n">
         <v>2.990000000000003</v>
@@ -3696,7 +3718,7 @@
         <v>1.14</v>
       </c>
       <c r="K68" t="n">
-        <v>-11.11111111111114</v>
+        <v>-8.333333333333348</v>
       </c>
       <c r="L68" t="n">
         <v>2.988000000000004</v>
@@ -3747,7 +3769,7 @@
         <v>1.14</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.11111111111114</v>
+        <v>-8.333333333333348</v>
       </c>
       <c r="L69" t="n">
         <v>2.986000000000004</v>
@@ -3798,7 +3820,7 @@
         <v>1.16</v>
       </c>
       <c r="K70" t="n">
-        <v>-15.78947368421056</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L70" t="n">
         <v>2.982000000000004</v>
@@ -3849,7 +3871,7 @@
         <v>1.18</v>
       </c>
       <c r="K71" t="n">
-        <v>-20.00000000000005</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L71" t="n">
         <v>2.975000000000004</v>
@@ -3900,7 +3922,7 @@
         <v>1.2</v>
       </c>
       <c r="K72" t="n">
-        <v>-20.00000000000005</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L72" t="n">
         <v>2.971000000000003</v>
@@ -3951,7 +3973,7 @@
         <v>1.21</v>
       </c>
       <c r="K73" t="n">
-        <v>-19.99999999999996</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L73" t="n">
         <v>2.964000000000004</v>
@@ -4002,7 +4024,7 @@
         <v>1.21</v>
       </c>
       <c r="K74" t="n">
-        <v>-19.99999999999996</v>
+        <v>-20</v>
       </c>
       <c r="L74" t="n">
         <v>2.959000000000004</v>
@@ -4053,7 +4075,7 @@
         <v>1.24</v>
       </c>
       <c r="K75" t="n">
-        <v>-9.523809523809554</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>2.958000000000003</v>
@@ -4104,7 +4126,7 @@
         <v>1.24</v>
       </c>
       <c r="K76" t="n">
-        <v>-9.523809523809554</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L76" t="n">
         <v>2.958000000000003</v>
@@ -4155,7 +4177,7 @@
         <v>1.25</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.000000000000017</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L77" t="n">
         <v>2.961000000000003</v>
@@ -4206,7 +4228,7 @@
         <v>1.27</v>
       </c>
       <c r="K78" t="n">
-        <v>-13.51351351351349</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L78" t="n">
         <v>2.958000000000003</v>
@@ -4257,7 +4279,7 @@
         <v>1.27</v>
       </c>
       <c r="K79" t="n">
-        <v>-13.51351351351349</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L79" t="n">
         <v>2.955000000000003</v>
@@ -4308,7 +4330,7 @@
         <v>1.279999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>-10.52631578947372</v>
+        <v>20.00000000000018</v>
       </c>
       <c r="L80" t="n">
         <v>2.955000000000003</v>
@@ -4359,7 +4381,7 @@
         <v>1.279999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-13.51351351351349</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L81" t="n">
         <v>2.957000000000003</v>
@@ -4410,7 +4432,7 @@
         <v>1.299999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>5.882352941176486</v>
+        <v>77.77777777777811</v>
       </c>
       <c r="L82" t="n">
         <v>2.963000000000003</v>
@@ -4461,7 +4483,7 @@
         <v>1.309999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.030303030302973</v>
+        <v>60.00000000000053</v>
       </c>
       <c r="L83" t="n">
         <v>2.969000000000003</v>
@@ -4512,7 +4534,7 @@
         <v>1.309999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>3.225806451612987</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L84" t="n">
         <v>2.975000000000003</v>
@@ -4563,7 +4585,7 @@
         <v>1.329999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>11.11111111111144</v>
       </c>
       <c r="L85" t="n">
         <v>2.976000000000003</v>
@@ -4614,7 +4636,7 @@
         <v>1.349999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>-3.030303030302973</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>2.975000000000003</v>
@@ -4665,7 +4687,7 @@
         <v>1.349999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>10.34482758620701</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L87" t="n">
         <v>2.975000000000003</v>
@@ -4716,7 +4738,7 @@
         <v>1.349999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>-23.80952380952383</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L88" t="n">
         <v>2.973000000000003</v>
@@ -4767,7 +4789,7 @@
         <v>1.369999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>-30.43478260869571</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L89" t="n">
         <v>2.969000000000003</v>
@@ -4818,7 +4840,7 @@
         <v>1.369999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>-23.80952380952383</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L90" t="n">
         <v>2.964000000000003</v>
@@ -4869,7 +4891,7 @@
         <v>1.369999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>-15.7894736842105</v>
+        <v>-100</v>
       </c>
       <c r="L91" t="n">
         <v>2.959000000000004</v>
@@ -4920,7 +4942,7 @@
         <v>1.379999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>-71.42857142857197</v>
       </c>
       <c r="L92" t="n">
         <v>2.953000000000004</v>
@@ -4971,7 +4993,7 @@
         <v>1.379999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>5.882352941176379</v>
+        <v>-71.42857142857197</v>
       </c>
       <c r="L93" t="n">
         <v>2.948000000000003</v>
@@ -5022,7 +5044,7 @@
         <v>1.409999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>20.00000000000009</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>2.946000000000003</v>
@@ -5073,7 +5095,7 @@
         <v>1.429999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>-5.263157894736744</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>2.944000000000004</v>
@@ -5124,7 +5146,7 @@
         <v>1.44</v>
       </c>
       <c r="K96" t="n">
-        <v>-10.00000000000002</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L96" t="n">
         <v>2.943000000000003</v>
@@ -5175,7 +5197,7 @@
         <v>1.47</v>
       </c>
       <c r="K97" t="n">
-        <v>9.090909090909092</v>
+        <v>16.6666666666666</v>
       </c>
       <c r="L97" t="n">
         <v>2.945000000000003</v>
@@ -5226,7 +5248,7 @@
         <v>1.5</v>
       </c>
       <c r="K98" t="n">
-        <v>-13.04347826086965</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L98" t="n">
         <v>2.944000000000004</v>
@@ -5277,7 +5299,7 @@
         <v>1.54</v>
       </c>
       <c r="K99" t="n">
-        <v>3.703703703703618</v>
+        <v>29.41176470588211</v>
       </c>
       <c r="L99" t="n">
         <v>2.949000000000004</v>
@@ -5328,7 +5350,7 @@
         <v>1.54</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>29.41176470588211</v>
       </c>
       <c r="L100" t="n">
         <v>2.954000000000003</v>
@@ -5379,7 +5401,7 @@
         <v>1.54</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L101" t="n">
         <v>2.959000000000003</v>
@@ -5430,7 +5452,7 @@
         <v>1.54</v>
       </c>
       <c r="K102" t="n">
-        <v>-8.333333333333318</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L102" t="n">
         <v>2.963000000000003</v>
@@ -5481,7 +5503,7 @@
         <v>1.56</v>
       </c>
       <c r="K103" t="n">
-        <v>3.999999999999901</v>
+        <v>19.99999999999976</v>
       </c>
       <c r="L103" t="n">
         <v>2.969000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>1.56</v>
       </c>
       <c r="K104" t="n">
-        <v>3.999999999999901</v>
+        <v>38.46153846153809</v>
       </c>
       <c r="L104" t="n">
         <v>2.972000000000003</v>
@@ -5583,7 +5605,7 @@
         <v>1.56</v>
       </c>
       <c r="K105" t="n">
-        <v>13.04347826086943</v>
+        <v>49.99999999999982</v>
       </c>
       <c r="L105" t="n">
         <v>2.977000000000003</v>
@@ -5634,7 +5656,7 @@
         <v>1.56</v>
       </c>
       <c r="K106" t="n">
-        <v>23.80952380952363</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>2.983000000000002</v>
@@ -5685,7 +5707,7 @@
         <v>1.56</v>
       </c>
       <c r="K107" t="n">
-        <v>23.80952380952363</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
         <v>2.986000000000003</v>
@@ -5736,7 +5758,7 @@
         <v>1.56</v>
       </c>
       <c r="K108" t="n">
-        <v>23.80952380952363</v>
+        <v>100</v>
       </c>
       <c r="L108" t="n">
         <v>2.992000000000003</v>
@@ -5787,7 +5809,7 @@
         <v>1.62</v>
       </c>
       <c r="K109" t="n">
-        <v>3.999999999999901</v>
+        <v>-50</v>
       </c>
       <c r="L109" t="n">
         <v>2.988000000000003</v>
@@ -5838,7 +5860,7 @@
         <v>1.63</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L110" t="n">
         <v>2.983000000000003</v>
@@ -5889,7 +5911,7 @@
         <v>1.65</v>
       </c>
       <c r="K111" t="n">
-        <v>-7.142857142857132</v>
+        <v>-63.63636363636355</v>
       </c>
       <c r="L111" t="n">
         <v>2.976000000000003</v>
@@ -5940,7 +5962,7 @@
         <v>1.71</v>
       </c>
       <c r="K112" t="n">
-        <v>9.09090909090914</v>
+        <v>-19.99999999999988</v>
       </c>
       <c r="L112" t="n">
         <v>2.975000000000003</v>
@@ -5991,7 +6013,7 @@
         <v>1.73</v>
       </c>
       <c r="K113" t="n">
-        <v>2.857142857142915</v>
+        <v>-29.41176470588226</v>
       </c>
       <c r="L113" t="n">
         <v>2.970000000000003</v>
@@ -6042,7 +6064,7 @@
         <v>1.76</v>
       </c>
       <c r="K114" t="n">
-        <v>2.857142857142792</v>
+        <v>-10.00000000000002</v>
       </c>
       <c r="L114" t="n">
         <v>2.968000000000003</v>
@@ -6093,7 +6115,7 @@
         <v>1.76</v>
       </c>
       <c r="K115" t="n">
-        <v>9.090909090909017</v>
+        <v>-10.00000000000002</v>
       </c>
       <c r="L115" t="n">
         <v>2.966000000000002</v>
@@ -6144,7 +6166,7 @@
         <v>1.77</v>
       </c>
       <c r="K116" t="n">
-        <v>15.15151515151521</v>
+        <v>-4.761904761904661</v>
       </c>
       <c r="L116" t="n">
         <v>2.965000000000003</v>
@@ -6195,7 +6217,7 @@
         <v>1.78</v>
       </c>
       <c r="K117" t="n">
-        <v>9.677419354838646</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>2.965000000000003</v>
@@ -6246,7 +6268,7 @@
         <v>1.78</v>
       </c>
       <c r="K118" t="n">
-        <v>21.42857142857146</v>
+        <v>37.50000000000011</v>
       </c>
       <c r="L118" t="n">
         <v>2.965000000000003</v>
@@ -6297,7 +6319,7 @@
         <v>1.78</v>
       </c>
       <c r="K119" t="n">
-        <v>8.333333333333348</v>
+        <v>46.66666666666659</v>
       </c>
       <c r="L119" t="n">
         <v>2.971000000000003</v>
@@ -6348,7 +6370,7 @@
         <v>1.78</v>
       </c>
       <c r="K120" t="n">
-        <v>8.333333333333348</v>
+        <v>69.23076923076917</v>
       </c>
       <c r="L120" t="n">
         <v>2.978000000000002</v>
@@ -6399,7 +6421,7 @@
         <v>1.78</v>
       </c>
       <c r="K121" t="n">
-        <v>8.333333333333348</v>
+        <v>42.85714285714268</v>
       </c>
       <c r="L121" t="n">
         <v>2.987000000000002</v>
@@ -6450,7 +6472,7 @@
         <v>1.79</v>
       </c>
       <c r="K122" t="n">
-        <v>4.000000000000099</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L122" t="n">
         <v>2.989000000000002</v>
@@ -6501,7 +6523,7 @@
         <v>1.8</v>
       </c>
       <c r="K123" t="n">
-        <v>-8.333333333333348</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>2.992000000000002</v>
@@ -6552,7 +6574,7 @@
         <v>1.83</v>
       </c>
       <c r="K124" t="n">
-        <v>-18.51851851851848</v>
+        <v>-42.85714285714268</v>
       </c>
       <c r="L124" t="n">
         <v>2.989000000000002</v>
@@ -6603,7 +6625,7 @@
         <v>1.839999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>-14.28571428571433</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L125" t="n">
         <v>2.987000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>1.839999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>-14.28571428571433</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L126" t="n">
         <v>2.984000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>1.839999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>-14.28571428571433</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L127" t="n">
         <v>2.980000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>1.859999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>-6.666666666666686</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L128" t="n">
         <v>2.978000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>1.889999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>3.703703703703801</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L129" t="n">
         <v>2.973000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>11.11111111111108</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L130" t="n">
         <v>2.969000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>20</v>
+        <v>-27.27272727272764</v>
       </c>
       <c r="L131" t="n">
         <v>2.965000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>1.909999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-10.00000000000007</v>
+        <v>-27.27272727272735</v>
       </c>
       <c r="L132" t="n">
         <v>2.961000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>1.939999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-14.28571428571447</v>
+        <v>-27.27272727272764</v>
       </c>
       <c r="L133" t="n">
         <v>2.955000000000001</v>
@@ -7062,7 +7084,7 @@
         <v>1.939999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>-33.3333333333335</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L134" t="n">
         <v>2.952000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>1.959999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>-20.00000000000009</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L135" t="n">
         <v>2.950000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>1.969999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-20.00000000000009</v>
+        <v>-7.692307692307534</v>
       </c>
       <c r="L136" t="n">
         <v>2.949000000000002</v>
@@ -7215,7 +7237,7 @@
         <v>1.979999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-20.00000000000009</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L137" t="n">
         <v>2.949000000000002</v>
@@ -7266,7 +7288,7 @@
         <v>1.989999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>-23.80952380952383</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>2.946000000000002</v>
@@ -7317,7 +7339,7 @@
         <v>1.999999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>-18.18181818181829</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>2.947000000000002</v>
@@ -7368,7 +7390,7 @@
         <v>2.009999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>-21.73913043478266</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L140" t="n">
         <v>2.946000000000002</v>
@@ -7419,7 +7441,7 @@
         <v>2.019999999999998</v>
       </c>
       <c r="K141" t="n">
-        <v>-16.66666666666679</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L141" t="n">
         <v>2.946000000000002</v>
@@ -7470,7 +7492,7 @@
         <v>2.019999999999998</v>
       </c>
       <c r="K142" t="n">
-        <v>-13.04347826086975</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L142" t="n">
         <v>2.947000000000002</v>
@@ -7521,7 +7543,7 @@
         <v>2.029999999999998</v>
       </c>
       <c r="K143" t="n">
-        <v>-13.04347826086958</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L143" t="n">
         <v>2.950000000000002</v>
@@ -7572,7 +7594,7 @@
         <v>2.039999999999998</v>
       </c>
       <c r="K144" t="n">
-        <v>4.761904761904701</v>
+        <v>25.00000000000042</v>
       </c>
       <c r="L144" t="n">
         <v>2.954000000000002</v>
@@ -7623,7 +7645,7 @@
         <v>2.089999999999998</v>
       </c>
       <c r="K145" t="n">
-        <v>-20.00000000000007</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L145" t="n">
         <v>2.951000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>2.099999999999998</v>
       </c>
       <c r="K146" t="n">
-        <v>-23.07692307692323</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L146" t="n">
         <v>2.946000000000002</v>
@@ -7725,7 +7747,7 @@
         <v>2.129999999999998</v>
       </c>
       <c r="K147" t="n">
-        <v>-10.34482758620688</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L147" t="n">
         <v>2.943000000000002</v>
@@ -7776,7 +7798,7 @@
         <v>2.129999999999998</v>
       </c>
       <c r="K148" t="n">
-        <v>-18.51851851851854</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L148" t="n">
         <v>2.941000000000002</v>
@@ -7827,7 +7849,7 @@
         <v>2.129999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>-8.33333333333338</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L149" t="n">
         <v>2.938000000000002</v>
@@ -7878,7 +7900,7 @@
         <v>2.139999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>-16.66666666666673</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>2.935000000000003</v>
@@ -7929,7 +7951,7 @@
         <v>2.139999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>-16.66666666666673</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>2.931000000000002</v>
@@ -7980,7 +8002,7 @@
         <v>2.149999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>-8.333333333333348</v>
+        <v>-16.6666666666666</v>
       </c>
       <c r="L152" t="n">
         <v>2.928000000000002</v>
@@ -8031,7 +8053,7 @@
         <v>2.189999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>20.00000000000014</v>
+        <v>6.666666666666784</v>
       </c>
       <c r="L153" t="n">
         <v>2.930000000000002</v>
@@ -8082,7 +8104,7 @@
         <v>2.189999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>20.00000000000014</v>
+        <v>59.99999999999947</v>
       </c>
       <c r="L154" t="n">
         <v>2.931000000000002</v>
@@ -8133,7 +8155,7 @@
         <v>2.189999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>13.0434782608697</v>
+        <v>77.77777777777744</v>
       </c>
       <c r="L155" t="n">
         <v>2.937000000000002</v>
@@ -8184,7 +8206,7 @@
         <v>2.209999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>16.66666666666673</v>
+        <v>74.99999999999959</v>
       </c>
       <c r="L156" t="n">
         <v>2.946000000000002</v>
@@ -8235,7 +8257,7 @@
         <v>2.259999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>-7.142857142857154</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L157" t="n">
         <v>2.947000000000002</v>
@@ -8286,7 +8308,7 @@
         <v>2.269999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>14.2857142857142</v>
       </c>
       <c r="L158" t="n">
         <v>2.949000000000003</v>
@@ -8337,7 +8359,7 @@
         <v>2.269999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>-3.703703703703618</v>
+        <v>23.07692307692313</v>
       </c>
       <c r="L159" t="n">
         <v>2.951000000000003</v>
@@ -8388,7 +8410,7 @@
         <v>2.269999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>23.07692307692313</v>
       </c>
       <c r="L160" t="n">
         <v>2.954000000000003</v>
@@ -8439,7 +8461,7 @@
         <v>2.269999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>-3.999999999999901</v>
+        <v>16.6666666666666</v>
       </c>
       <c r="L161" t="n">
         <v>2.957000000000003</v>
@@ -8490,7 +8512,7 @@
         <v>2.269999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>-3.999999999999901</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L162" t="n">
         <v>2.959000000000003</v>
@@ -8541,7 +8563,7 @@
         <v>2.289999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>7.692307692307667</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>2.959000000000003</v>
@@ -8592,7 +8614,7 @@
         <v>2.309999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>-3.703703703703606</v>
+        <v>-16.6666666666666</v>
       </c>
       <c r="L164" t="n">
         <v>2.957000000000003</v>
@@ -8643,7 +8665,7 @@
         <v>2.309999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>18.18181818181807</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L165" t="n">
         <v>2.955000000000004</v>
@@ -8694,7 +8716,7 @@
         <v>2.309999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>23.80952380952379</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L166" t="n">
         <v>2.951000000000004</v>
@@ -8745,7 +8767,7 @@
         <v>2.309999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>11.11111111111106</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>2.952000000000004</v>
@@ -8796,7 +8818,7 @@
         <v>2.329999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>2.950000000000005</v>
@@ -8847,7 +8869,7 @@
         <v>2.359999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>13.04347826086943</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L169" t="n">
         <v>2.951000000000005</v>
@@ -8898,7 +8920,7 @@
         <v>2.379999999999999</v>
       </c>
       <c r="K170" t="n">
-        <v>24.99999999999995</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L170" t="n">
         <v>2.954000000000005</v>
@@ -8949,7 +8971,7 @@
         <v>2.379999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>24.99999999999995</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L171" t="n">
         <v>2.957000000000005</v>
@@ -9000,7 +9022,7 @@
         <v>2.389999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>24.99999999999995</v>
+        <v>20</v>
       </c>
       <c r="L172" t="n">
         <v>2.961000000000005</v>
@@ -9051,7 +9073,7 @@
         <v>2.389999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>9.999999999999979</v>
+        <v>50</v>
       </c>
       <c r="L173" t="n">
         <v>2.963000000000005</v>
@@ -9102,7 +9124,7 @@
         <v>2.389999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>9.999999999999979</v>
+        <v>50</v>
       </c>
       <c r="L174" t="n">
         <v>2.967000000000005</v>
@@ -9153,7 +9175,7 @@
         <v>2.419999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>-4.347826086956606</v>
+        <v>9.09090909090887</v>
       </c>
       <c r="L175" t="n">
         <v>2.968000000000004</v>
@@ -9204,7 +9226,7 @@
         <v>2.46</v>
       </c>
       <c r="K176" t="n">
-        <v>3.999999999999901</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L176" t="n">
         <v>2.973000000000005</v>
@@ -9255,7 +9277,7 @@
         <v>2.489999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>13.04347826086965</v>
+        <v>25</v>
       </c>
       <c r="L177" t="n">
         <v>2.975000000000005</v>
@@ -9306,7 +9328,7 @@
         <v>2.509999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>16.66666666666666</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L178" t="n">
         <v>2.981000000000005</v>
@@ -9357,7 +9379,7 @@
         <v>2.52</v>
       </c>
       <c r="K179" t="n">
-        <v>11.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>2.983000000000005</v>
@@ -9408,7 +9430,7 @@
         <v>2.53</v>
       </c>
       <c r="K180" t="n">
-        <v>15.38461538461536</v>
+        <v>6.666666666666784</v>
       </c>
       <c r="L180" t="n">
         <v>2.984000000000005</v>
@@ -9459,7 +9481,7 @@
         <v>2.53</v>
       </c>
       <c r="K181" t="n">
-        <v>15.38461538461536</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>2.985000000000005</v>
@@ -9510,7 +9532,7 @@
         <v>2.54</v>
       </c>
       <c r="K182" t="n">
-        <v>18.51851851851842</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L182" t="n">
         <v>2.986000000000005</v>
@@ -9561,7 +9583,7 @@
         <v>2.549999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>2.986000000000005</v>
@@ -9612,7 +9634,7 @@
         <v>2.559999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>19.99999999999993</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L184" t="n">
         <v>2.987000000000005</v>
@@ -9663,7 +9685,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>23.07692307692295</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L185" t="n">
         <v>2.992000000000004</v>
@@ -9714,7 +9736,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>23.07692307692295</v>
+        <v>49.99999999999972</v>
       </c>
       <c r="L186" t="n">
         <v>2.993000000000004</v>
@@ -9765,7 +9787,7 @@
         <v>2.569999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>23.07692307692295</v>
+        <v>33.33333333333284</v>
       </c>
       <c r="L187" t="n">
         <v>2.997000000000004</v>
@@ -9816,7 +9838,7 @@
         <v>2.589999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>38.46153846153836</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L188" t="n">
         <v>3.001000000000004</v>
@@ -9867,7 +9889,7 @@
         <v>2.609999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>19.99999999999993</v>
+        <v>24.99999999999972</v>
       </c>
       <c r="L189" t="n">
         <v>3.004000000000004</v>
@@ -9918,7 +9940,7 @@
         <v>2.619999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>3.007000000000004</v>
@@ -9969,7 +9991,7 @@
         <v>2.649999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>3.703703703703789</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L191" t="n">
         <v>3.007000000000004</v>
@@ -10020,7 +10042,7 @@
         <v>2.659999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>3.70370370370363</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L192" t="n">
         <v>3.007000000000004</v>
@@ -10071,7 +10093,7 @@
         <v>2.669999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L193" t="n">
         <v>3.007000000000004</v>
@@ -10122,7 +10144,7 @@
         <v>2.689999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>6.666666666666549</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>3.008000000000004</v>
@@ -10173,7 +10195,7 @@
         <v>2.689999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>18.51851851851854</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>3.008000000000004</v>
@@ -10224,7 +10246,7 @@
         <v>2.709999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>-3.999999999999943</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L196" t="n">
         <v>3.006000000000004</v>
@@ -10275,7 +10297,7 @@
         <v>2.709999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>9.090909090909165</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>3.004000000000004</v>
@@ -10326,7 +10348,7 @@
         <v>2.729999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>-9.090909090909165</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>2.998000000000004</v>
@@ -10377,7 +10399,7 @@
         <v>2.739999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>-9.090909090909165</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L199" t="n">
         <v>2.993000000000004</v>
@@ -10428,7 +10450,7 @@
         <v>2.759999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>-4.347826086956657</v>
+        <v>-9.090909090909385</v>
       </c>
       <c r="L200" t="n">
         <v>2.989000000000004</v>
@@ -10479,7 +10501,7 @@
         <v>2.769999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>-8.33333333333341</v>
+        <v>-27.27272727272735</v>
       </c>
       <c r="L201" t="n">
         <v>2.987000000000004</v>
@@ -10530,7 +10552,7 @@
         <v>2.779999999999998</v>
       </c>
       <c r="K202" t="n">
-        <v>-8.33333333333341</v>
+        <v>-9.090909090909385</v>
       </c>
       <c r="L202" t="n">
         <v>2.985000000000004</v>
@@ -10581,7 +10603,7 @@
         <v>2.809999999999997</v>
       </c>
       <c r="K203" t="n">
-        <v>7.692307692307587</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>2.987000000000003</v>
@@ -10632,7 +10654,7 @@
         <v>2.839999999999997</v>
       </c>
       <c r="K204" t="n">
-        <v>-7.142857142857199</v>
+        <v>-20</v>
       </c>
       <c r="L204" t="n">
         <v>2.984000000000003</v>
@@ -10683,7 +10705,7 @@
         <v>2.839999999999997</v>
       </c>
       <c r="K205" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L205" t="n">
         <v>2.981000000000003</v>
@@ -10734,7 +10756,7 @@
         <v>2.859999999999997</v>
       </c>
       <c r="K206" t="n">
-        <v>-17.24137931034487</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L206" t="n">
         <v>2.978000000000003</v>
@@ -10785,7 +10807,7 @@
         <v>2.869999999999997</v>
       </c>
       <c r="K207" t="n">
-        <v>-20</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L207" t="n">
         <v>2.974000000000003</v>
@@ -10836,7 +10858,7 @@
         <v>2.889999999999997</v>
       </c>
       <c r="K208" t="n">
-        <v>-20</v>
+        <v>6.666666666666863</v>
       </c>
       <c r="L208" t="n">
         <v>2.974000000000003</v>
@@ -10887,7 +10909,7 @@
         <v>2.889999999999997</v>
       </c>
       <c r="K209" t="n">
-        <v>-14.28571428571424</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L209" t="n">
         <v>2.975000000000003</v>
@@ -10938,7 +10960,7 @@
         <v>2.899999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>-21.4285714285716</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L210" t="n">
         <v>2.973000000000003</v>
@@ -10989,7 +11011,7 @@
         <v>2.899999999999997</v>
       </c>
       <c r="K211" t="n">
-        <v>-12.00000000000018</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L211" t="n">
         <v>2.972000000000003</v>
@@ -11040,7 +11062,7 @@
         <v>2.919999999999997</v>
       </c>
       <c r="K212" t="n">
-        <v>-7.692307692307746</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L212" t="n">
         <v>2.972000000000002</v>
@@ -11091,7 +11113,7 @@
         <v>2.919999999999997</v>
       </c>
       <c r="K213" t="n">
-        <v>-4.000000000000114</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>2.969000000000003</v>
@@ -11142,7 +11164,7 @@
         <v>2.969999999999997</v>
       </c>
       <c r="K214" t="n">
-        <v>-28.57142857142855</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L214" t="n">
         <v>2.964000000000003</v>
@@ -11193,7 +11215,7 @@
         <v>2.999999999999997</v>
       </c>
       <c r="K215" t="n">
-        <v>-16.12903225806452</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>2.962000000000002</v>
@@ -11244,7 +11266,7 @@
         <v>3.029999999999997</v>
       </c>
       <c r="K216" t="n">
-        <v>-18.75000000000008</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L216" t="n">
         <v>2.959000000000002</v>
@@ -11295,7 +11317,7 @@
         <v>3.039999999999997</v>
       </c>
       <c r="K217" t="n">
-        <v>-21.21212121212135</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L217" t="n">
         <v>2.956000000000003</v>
@@ -11346,7 +11368,7 @@
         <v>3.049999999999997</v>
       </c>
       <c r="K218" t="n">
-        <v>-12.50000000000004</v>
+        <v>-25</v>
       </c>
       <c r="L218" t="n">
         <v>2.952000000000003</v>
@@ -11397,7 +11419,7 @@
         <v>3.069999999999997</v>
       </c>
       <c r="K219" t="n">
-        <v>-3.030303030302973</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L219" t="n">
         <v>2.950000000000004</v>
@@ -11448,7 +11470,7 @@
         <v>3.089999999999997</v>
       </c>
       <c r="K220" t="n">
-        <v>-15.15151515151513</v>
+        <v>-15.78947368421043</v>
       </c>
       <c r="L220" t="n">
         <v>2.947000000000004</v>
@@ -11499,7 +11521,7 @@
         <v>3.119999999999997</v>
       </c>
       <c r="K221" t="n">
-        <v>-2.85714285714293</v>
+        <v>-10.00000000000002</v>
       </c>
       <c r="L221" t="n">
         <v>2.947000000000004</v>
@@ -11550,7 +11572,7 @@
         <v>3.139999999999997</v>
       </c>
       <c r="K222" t="n">
-        <v>-11.11111111111114</v>
+        <v>-18.18181818181822</v>
       </c>
       <c r="L222" t="n">
         <v>2.943000000000003</v>
@@ -11601,7 +11623,7 @@
         <v>3.139999999999997</v>
       </c>
       <c r="K223" t="n">
-        <v>-21.21212121212119</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L223" t="n">
         <v>2.939000000000003</v>
@@ -11652,7 +11674,7 @@
         <v>3.149999999999997</v>
       </c>
       <c r="K224" t="n">
-        <v>-9.677419354838646</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L224" t="n">
         <v>2.941000000000003</v>
@@ -11703,7 +11725,7 @@
         <v>3.149999999999997</v>
       </c>
       <c r="K225" t="n">
-        <v>-9.677419354838646</v>
+        <v>16.6666666666666</v>
       </c>
       <c r="L225" t="n">
         <v>2.940000000000003</v>
@@ -11754,7 +11776,7 @@
         <v>3.159999999999997</v>
       </c>
       <c r="K226" t="n">
-        <v>-6.666666666666667</v>
+        <v>16.6666666666666</v>
       </c>
       <c r="L226" t="n">
         <v>2.941000000000003</v>
@@ -11805,7 +11827,7 @@
         <v>3.189999999999997</v>
       </c>
       <c r="K227" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L227" t="n">
         <v>2.940000000000003</v>
@@ -11856,7 +11878,7 @@
         <v>3.209999999999997</v>
       </c>
       <c r="K228" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L228" t="n">
         <v>2.940000000000003</v>
@@ -11907,7 +11929,7 @@
         <v>3.219999999999998</v>
       </c>
       <c r="K229" t="n">
-        <v>-15.15151515151521</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L229" t="n">
         <v>2.937000000000004</v>
@@ -11958,7 +11980,7 @@
         <v>3.229999999999998</v>
       </c>
       <c r="K230" t="n">
-        <v>-9.090909090909017</v>
+        <v>-27.2727272727269</v>
       </c>
       <c r="L230" t="n">
         <v>2.937000000000004</v>
@@ -12009,7 +12031,7 @@
         <v>3.239999999999998</v>
       </c>
       <c r="K231" t="n">
-        <v>-11.76470588235293</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L231" t="n">
         <v>2.933000000000004</v>
@@ -12060,7 +12082,7 @@
         <v>3.249999999999998</v>
       </c>
       <c r="K232" t="n">
-        <v>-21.21212121212113</v>
+        <v>-27.2727272727269</v>
       </c>
       <c r="L232" t="n">
         <v>2.930000000000004</v>
@@ -12111,7 +12133,7 @@
         <v>3.259999999999998</v>
       </c>
       <c r="K233" t="n">
-        <v>-23.52941176470585</v>
+        <v>-45.45454545454538</v>
       </c>
       <c r="L233" t="n">
         <v>2.926000000000004</v>
@@ -12162,7 +12184,7 @@
         <v>3.259999999999998</v>
       </c>
       <c r="K234" t="n">
-        <v>-10.34482758620695</v>
+        <v>-45.45454545454538</v>
       </c>
       <c r="L234" t="n">
         <v>2.921000000000004</v>
@@ -12213,7 +12235,7 @@
         <v>3.259999999999998</v>
       </c>
       <c r="K235" t="n">
-        <v>-23.076923076923</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L235" t="n">
         <v>2.916000000000004</v>
@@ -12264,7 +12286,7 @@
         <v>3.319999999999998</v>
       </c>
       <c r="K236" t="n">
-        <v>10.34482758620678</v>
+        <v>38.46153846153809</v>
       </c>
       <c r="L236" t="n">
         <v>2.918000000000004</v>
@@ -12315,7 +12337,7 @@
         <v>3.369999999999998</v>
       </c>
       <c r="K237" t="n">
-        <v>-3.030303030302957</v>
+        <v>-12.49999999999996</v>
       </c>
       <c r="L237" t="n">
         <v>2.918000000000004</v>
@@ -12366,7 +12388,7 @@
         <v>3.379999999999998</v>
       </c>
       <c r="K238" t="n">
-        <v>-9.09090909090914</v>
+        <v>-12.49999999999996</v>
       </c>
       <c r="L238" t="n">
         <v>2.915000000000004</v>
@@ -12417,7 +12439,7 @@
         <v>3.389999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>-18.74999999999998</v>
+        <v>-25</v>
       </c>
       <c r="L239" t="n">
         <v>2.912000000000004</v>
@@ -12468,7 +12490,7 @@
         <v>3.399999999999998</v>
       </c>
       <c r="K240" t="n">
-        <v>-16.12903225806455</v>
+        <v>-25</v>
       </c>
       <c r="L240" t="n">
         <v>2.907000000000004</v>
@@ -12519,7 +12541,7 @@
         <v>3.399999999999998</v>
       </c>
       <c r="K241" t="n">
-        <v>-28.57142857142848</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L241" t="n">
         <v>2.903000000000004</v>
@@ -12570,7 +12592,7 @@
         <v>3.399999999999998</v>
       </c>
       <c r="K242" t="n">
-        <v>-23.076923076923</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L242" t="n">
         <v>2.900000000000004</v>
@@ -12621,7 +12643,7 @@
         <v>3.399999999999998</v>
       </c>
       <c r="K243" t="n">
-        <v>-23.076923076923</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L243" t="n">
         <v>2.898000000000004</v>
@@ -12672,7 +12694,7 @@
         <v>3.399999999999998</v>
       </c>
       <c r="K244" t="n">
-        <v>-28.00000000000001</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L244" t="n">
         <v>2.896000000000004</v>
@@ -12723,7 +12745,7 @@
         <v>3.409999999999998</v>
       </c>
       <c r="K245" t="n">
-        <v>-23.076923076923</v>
+        <v>-77.77777777777733</v>
       </c>
       <c r="L245" t="n">
         <v>2.895000000000004</v>
@@ -12774,7 +12796,7 @@
         <v>3.419999999999999</v>
       </c>
       <c r="K246" t="n">
-        <v>-23.076923076923</v>
+        <v>-59.99999999999964</v>
       </c>
       <c r="L246" t="n">
         <v>2.887000000000004</v>
@@ -12825,7 +12847,7 @@
         <v>3.439999999999999</v>
       </c>
       <c r="K247" t="n">
-        <v>-4.000000000000071</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>2.886000000000004</v>
@@ -12876,7 +12898,7 @@
         <v>3.449999999999998</v>
       </c>
       <c r="K248" t="n">
-        <v>-16.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>2.885000000000004</v>
@@ -12927,7 +12949,7 @@
         <v>3.459999999999998</v>
       </c>
       <c r="K249" t="n">
-        <v>-8.333333333333318</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L249" t="n">
         <v>2.886000000000004</v>
@@ -12978,7 +13000,7 @@
         <v>3.459999999999998</v>
       </c>
       <c r="K250" t="n">
-        <v>-13.04347826086965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>2.888000000000004</v>
@@ -13029,7 +13051,7 @@
         <v>3.469999999999998</v>
       </c>
       <c r="K251" t="n">
-        <v>-13.04347826086948</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L251" t="n">
         <v>2.889000000000004</v>
@@ -13080,7 +13102,7 @@
         <v>3.479999999999998</v>
       </c>
       <c r="K252" t="n">
-        <v>-4.347826086956622</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L252" t="n">
         <v>2.891000000000004</v>
@@ -13131,7 +13153,7 @@
         <v>3.479999999999998</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L253" t="n">
         <v>2.893000000000004</v>
@@ -13182,7 +13204,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K254" t="n">
-        <v>8.333333333333348</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>2.897000000000005</v>
@@ -13233,7 +13255,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K255" t="n">
-        <v>8.333333333333348</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L255" t="n">
         <v>2.900000000000004</v>
@@ -13284,7 +13306,7 @@
         <v>3.509999999999998</v>
       </c>
       <c r="K256" t="n">
-        <v>-15.78947368421043</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L256" t="n">
         <v>2.905000000000004</v>
@@ -13335,7 +13357,7 @@
         <v>3.559999999999998</v>
       </c>
       <c r="K257" t="n">
-        <v>36.84210526315782</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L257" t="n">
         <v>2.913000000000005</v>
@@ -13386,7 +13408,7 @@
         <v>3.579999999999998</v>
       </c>
       <c r="K258" t="n">
-        <v>30.00000000000006</v>
+        <v>50.00000000000019</v>
       </c>
       <c r="L258" t="n">
         <v>2.920000000000004</v>
@@ -13437,7 +13459,7 @@
         <v>3.599999999999998</v>
       </c>
       <c r="K259" t="n">
-        <v>23.80952380952373</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L259" t="n">
         <v>2.924000000000004</v>
@@ -13488,7 +13510,7 @@
         <v>3.629999999999998</v>
       </c>
       <c r="K260" t="n">
-        <v>13.0434782608697</v>
+        <v>12.50000000000004</v>
       </c>
       <c r="L260" t="n">
         <v>2.925000000000005</v>
@@ -13539,7 +13561,7 @@
         <v>3.649999999999998</v>
       </c>
       <c r="K261" t="n">
-        <v>4.000000000000099</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L261" t="n">
         <v>2.925000000000005</v>
@@ -13590,7 +13612,7 @@
         <v>3.679999999999997</v>
       </c>
       <c r="K262" t="n">
-        <v>14.28571428571433</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L262" t="n">
         <v>2.927000000000005</v>
@@ -13641,7 +13663,7 @@
         <v>3.689999999999998</v>
       </c>
       <c r="K263" t="n">
-        <v>17.24137931034494</v>
+        <v>5.263157894736965</v>
       </c>
       <c r="L263" t="n">
         <v>2.930000000000005</v>
@@ -13692,7 +13714,7 @@
         <v>3.689999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>17.24137931034494</v>
+        <v>5.263157894736965</v>
       </c>
       <c r="L264" t="n">
         <v>2.931000000000005</v>
@@ -13743,7 +13765,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K265" t="n">
-        <v>17.24137931034482</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L265" t="n">
         <v>2.933000000000005</v>
@@ -13794,7 +13816,7 @@
         <v>3.739999999999998</v>
       </c>
       <c r="K266" t="n">
-        <v>6.250000000000027</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L266" t="n">
         <v>2.930000000000005</v>
@@ -13845,7 +13867,7 @@
         <v>3.739999999999998</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-37.50000000000011</v>
       </c>
       <c r="L267" t="n">
         <v>2.922000000000005</v>
@@ -13896,7 +13918,7 @@
         <v>3.739999999999998</v>
       </c>
       <c r="K268" t="n">
-        <v>3.448275862068902</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L268" t="n">
         <v>2.916000000000005</v>
@@ -13947,7 +13969,7 @@
         <v>3.739999999999998</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>-9.09090909090931</v>
       </c>
       <c r="L269" t="n">
         <v>2.912000000000004</v>
@@ -13998,7 +14020,7 @@
         <v>3.739999999999998</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L270" t="n">
         <v>2.911000000000004</v>
@@ -14049,7 +14071,7 @@
         <v>3.749999999999998</v>
       </c>
       <c r="K271" t="n">
-        <v>7.142857142857154</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L271" t="n">
         <v>2.913000000000005</v>
@@ -14100,7 +14122,7 @@
         <v>3.749999999999998</v>
       </c>
       <c r="K272" t="n">
-        <v>3.703703703703789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>2.912000000000005</v>
@@ -14151,7 +14173,7 @@
         <v>3.759999999999998</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L273" t="n">
         <v>2.909000000000005</v>
@@ -14202,7 +14224,7 @@
         <v>3.769999999999998</v>
       </c>
       <c r="K274" t="n">
-        <v>-11.11111111111104</v>
+        <v>-71.42857142857089</v>
       </c>
       <c r="L274" t="n">
         <v>2.905000000000005</v>
@@ -14253,7 +14275,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>-7.142857142857154</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>2.901000000000004</v>
@@ -14304,7 +14326,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>-11.11111111111122</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>2.901000000000004</v>
@@ -14355,7 +14377,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>-36.36363636363644</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>2.901000000000004</v>
@@ -14406,7 +14428,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>-30.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>2.901000000000004</v>
@@ -14457,7 +14479,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K279" t="n">
-        <v>-22.22222222222228</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>2.901000000000004</v>
@@ -14508,7 +14530,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K280" t="n">
-        <v>-6.666666666666825</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L280" t="n">
         <v>2.901000000000004</v>
@@ -14559,7 +14581,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K281" t="n">
-        <v>7.692307692307534</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L281" t="n">
         <v>2.900000000000004</v>
@@ -14610,7 +14632,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K282" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>2.899000000000004</v>
@@ -14661,7 +14683,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>-33.33333333333366</v>
+        <v>100</v>
       </c>
       <c r="L283" t="n">
         <v>2.899000000000004</v>
@@ -14712,7 +14734,7 @@
         <v>3.789999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L284" t="n">
         <v>2.901000000000004</v>
@@ -14763,7 +14785,7 @@
         <v>3.819999999999998</v>
       </c>
       <c r="K285" t="n">
-        <v>-49.99999999999982</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L285" t="n">
         <v>2.899000000000004</v>
@@ -14814,7 +14836,7 @@
         <v>3.819999999999998</v>
       </c>
       <c r="K286" t="n">
-        <v>-24.99999999999986</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L286" t="n">
         <v>2.897000000000004</v>
@@ -14865,7 +14887,7 @@
         <v>3.819999999999998</v>
       </c>
       <c r="K287" t="n">
-        <v>-24.99999999999986</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L287" t="n">
         <v>2.895000000000004</v>
@@ -14916,7 +14938,7 @@
         <v>3.829999999999998</v>
       </c>
       <c r="K288" t="n">
-        <v>-33.333333333333</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L288" t="n">
         <v>2.892000000000004</v>
@@ -14967,7 +14989,7 @@
         <v>3.829999999999998</v>
       </c>
       <c r="K289" t="n">
-        <v>-33.333333333333</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L289" t="n">
         <v>2.889000000000005</v>
@@ -15018,7 +15040,7 @@
         <v>3.839999999999998</v>
       </c>
       <c r="K290" t="n">
-        <v>-39.99999999999982</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L290" t="n">
         <v>2.885000000000005</v>
@@ -15069,7 +15091,7 @@
         <v>3.839999999999998</v>
       </c>
       <c r="K291" t="n">
-        <v>-55.55555555555567</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L291" t="n">
         <v>2.881000000000005</v>
@@ -15120,7 +15142,7 @@
         <v>3.859999999999998</v>
       </c>
       <c r="K292" t="n">
-        <v>-63.63636363636371</v>
+        <v>-74.99999999999959</v>
       </c>
       <c r="L292" t="n">
         <v>2.875000000000005</v>
@@ -15171,7 +15193,7 @@
         <v>3.869999999999998</v>
       </c>
       <c r="K293" t="n">
-        <v>-63.63636363636355</v>
+        <v>-100</v>
       </c>
       <c r="L293" t="n">
         <v>2.868000000000005</v>
@@ -15222,7 +15244,7 @@
         <v>3.879999999999998</v>
       </c>
       <c r="K294" t="n">
-        <v>-45.45454545454574</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L294" t="n">
         <v>2.861000000000005</v>
@@ -15273,7 +15295,7 @@
         <v>3.899999999999998</v>
       </c>
       <c r="K295" t="n">
-        <v>-66.66666666666666</v>
+        <v>-75.00000000000043</v>
       </c>
       <c r="L295" t="n">
         <v>2.855000000000005</v>
@@ -15324,7 +15346,7 @@
         <v>3.899999999999998</v>
       </c>
       <c r="K296" t="n">
-        <v>-66.66666666666666</v>
+        <v>-75.00000000000043</v>
       </c>
       <c r="L296" t="n">
         <v>2.849000000000005</v>
@@ -15375,7 +15397,7 @@
         <v>3.939999999999998</v>
       </c>
       <c r="K297" t="n">
-        <v>-75</v>
+        <v>-81.81818181818218</v>
       </c>
       <c r="L297" t="n">
         <v>2.839000000000005</v>
@@ -15426,7 +15448,7 @@
         <v>3.939999999999998</v>
       </c>
       <c r="K298" t="n">
-        <v>-75</v>
+        <v>-81.81818181818218</v>
       </c>
       <c r="L298" t="n">
         <v>2.830000000000005</v>
@@ -15477,7 +15499,7 @@
         <v>3.949999999999998</v>
       </c>
       <c r="K299" t="n">
-        <v>-64.70588235294096</v>
+        <v>-63.63636363636355</v>
       </c>
       <c r="L299" t="n">
         <v>2.822000000000005</v>
@@ -15528,7 +15550,7 @@
         <v>3.959999999999998</v>
       </c>
       <c r="K300" t="n">
-        <v>-55.55555555555556</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L300" t="n">
         <v>2.816000000000005</v>
@@ -15579,7 +15601,7 @@
         <v>3.969999999999998</v>
       </c>
       <c r="K301" t="n">
-        <v>-57.89473684210521</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L301" t="n">
         <v>2.809000000000005</v>
@@ -15630,7 +15652,7 @@
         <v>3.979999999999998</v>
       </c>
       <c r="K302" t="n">
-        <v>-60</v>
+        <v>-45.45454545454574</v>
       </c>
       <c r="L302" t="n">
         <v>2.803000000000005</v>
@@ -15681,7 +15703,7 @@
         <v>3.989999999999998</v>
       </c>
       <c r="K303" t="n">
-        <v>-61.90476190476186</v>
+        <v>-63.63636363636355</v>
       </c>
       <c r="L303" t="n">
         <v>2.797000000000005</v>
@@ -15732,7 +15754,7 @@
         <v>3.999999999999997</v>
       </c>
       <c r="K304" t="n">
-        <v>-61.9047619047622</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L304" t="n">
         <v>2.791000000000006</v>
@@ -15783,7 +15805,7 @@
         <v>3.999999999999997</v>
       </c>
       <c r="K305" t="n">
-        <v>-55.55555555555583</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L305" t="n">
         <v>2.787000000000006</v>
@@ -15834,7 +15856,7 @@
         <v>4.019999999999998</v>
       </c>
       <c r="K306" t="n">
-        <v>-60.00000000000013</v>
+        <v>-25</v>
       </c>
       <c r="L306" t="n">
         <v>2.781000000000006</v>
@@ -15885,7 +15907,7 @@
         <v>4.049999999999998</v>
       </c>
       <c r="K307" t="n">
-        <v>-39.13043478260864</v>
+        <v>9.090909090909275</v>
       </c>
       <c r="L307" t="n">
         <v>2.782000000000006</v>
@@ -15936,7 +15958,7 @@
         <v>4.049999999999998</v>
       </c>
       <c r="K308" t="n">
-        <v>-36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>2.783000000000006</v>
@@ -15987,7 +16009,7 @@
         <v>4.049999999999998</v>
       </c>
       <c r="K309" t="n">
-        <v>-36.36363636363637</v>
+        <v>-11.11111111111084</v>
       </c>
       <c r="L309" t="n">
         <v>2.783000000000006</v>
@@ -16038,7 +16060,7 @@
         <v>4.059999999999998</v>
       </c>
       <c r="K310" t="n">
-        <v>-27.27272727272733</v>
+        <v>11.11111111111084</v>
       </c>
       <c r="L310" t="n">
         <v>2.783000000000006</v>
@@ -16089,7 +16111,7 @@
         <v>4.069999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>-21.73913043478249</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L311" t="n">
         <v>2.785000000000005</v>
@@ -16140,7 +16162,7 @@
         <v>4.079999999999998</v>
       </c>
       <c r="K312" t="n">
-        <v>-9.090909090909092</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L312" t="n">
         <v>2.789000000000005</v>
@@ -16191,7 +16213,7 @@
         <v>4.079999999999998</v>
       </c>
       <c r="K313" t="n">
-        <v>-4.761904761904863</v>
+        <v>49.99999999999945</v>
       </c>
       <c r="L313" t="n">
         <v>2.794000000000005</v>
@@ -16242,7 +16264,7 @@
         <v>4.099999999999998</v>
       </c>
       <c r="K314" t="n">
-        <v>-18.18181818181818</v>
+        <v>19.99999999999991</v>
       </c>
       <c r="L314" t="n">
         <v>2.796000000000006</v>
@@ -16293,7 +16315,7 @@
         <v>4.099999999999998</v>
       </c>
       <c r="K315" t="n">
-        <v>-10</v>
+        <v>50</v>
       </c>
       <c r="L315" t="n">
         <v>2.798000000000005</v>
@@ -16344,7 +16366,7 @@
         <v>4.099999999999998</v>
       </c>
       <c r="K316" t="n">
-        <v>-10</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L316" t="n">
         <v>2.802000000000005</v>
@@ -16395,7 +16417,7 @@
         <v>4.099999999999998</v>
       </c>
       <c r="K317" t="n">
-        <v>12.5</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L317" t="n">
         <v>2.803000000000005</v>
@@ -16446,7 +16468,7 @@
         <v>4.109999999999998</v>
       </c>
       <c r="K318" t="n">
-        <v>17.64705882352957</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L318" t="n">
         <v>2.805000000000005</v>
@@ -16497,7 +16519,7 @@
         <v>4.119999999999997</v>
       </c>
       <c r="K319" t="n">
-        <v>5.882352941176363</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>2.806000000000005</v>
@@ -16548,7 +16570,7 @@
         <v>4.119999999999997</v>
       </c>
       <c r="K320" t="n">
-        <v>0</v>
+        <v>-20.00000000000089</v>
       </c>
       <c r="L320" t="n">
         <v>2.806000000000005</v>
@@ -16599,7 +16621,7 @@
         <v>4.159999999999997</v>
       </c>
       <c r="K321" t="n">
-        <v>26.31578947368413</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L321" t="n">
         <v>2.809000000000005</v>
@@ -16650,7 +16672,7 @@
         <v>4.169999999999997</v>
       </c>
       <c r="K322" t="n">
-        <v>26.31578947368442</v>
+        <v>11.11111111111149</v>
       </c>
       <c r="L322" t="n">
         <v>2.810000000000006</v>
@@ -16701,7 +16723,7 @@
         <v>4.209999999999997</v>
       </c>
       <c r="K323" t="n">
-        <v>9.090909090909109</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L323" t="n">
         <v>2.807000000000006</v>
@@ -16752,7 +16774,7 @@
         <v>4.219999999999997</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L324" t="n">
         <v>2.805000000000006</v>
@@ -16803,7 +16825,7 @@
         <v>4.229999999999997</v>
       </c>
       <c r="K325" t="n">
-        <v>4.347826086956631</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L325" t="n">
         <v>2.804000000000006</v>
@@ -16854,7 +16876,7 @@
         <v>4.229999999999997</v>
       </c>
       <c r="K326" t="n">
-        <v>14.28571428571447</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L326" t="n">
         <v>2.803000000000005</v>
@@ -16905,7 +16927,7 @@
         <v>4.239999999999997</v>
       </c>
       <c r="K327" t="n">
-        <v>5.263157894736768</v>
+        <v>-7.692307692307929</v>
       </c>
       <c r="L327" t="n">
         <v>2.803000000000005</v>
@@ -16956,7 +16978,7 @@
         <v>4.249999999999996</v>
       </c>
       <c r="K328" t="n">
-        <v>10.00000000000009</v>
+        <v>7.692307692307929</v>
       </c>
       <c r="L328" t="n">
         <v>2.803000000000005</v>
@@ -17007,7 +17029,7 @@
         <v>4.259999999999996</v>
       </c>
       <c r="K329" t="n">
-        <v>14.28571428571431</v>
+        <v>14.28571428571442</v>
       </c>
       <c r="L329" t="n">
         <v>2.805000000000005</v>
@@ -17058,7 +17080,7 @@
         <v>4.279999999999996</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L330" t="n">
         <v>2.805000000000005</v>
@@ -17109,7 +17131,7 @@
         <v>4.299999999999995</v>
       </c>
       <c r="K331" t="n">
-        <v>-13.04347826086985</v>
+        <v>-38.46153846153923</v>
       </c>
       <c r="L331" t="n">
         <v>2.799000000000006</v>
@@ -17160,7 +17182,7 @@
         <v>4.309999999999995</v>
       </c>
       <c r="K332" t="n">
-        <v>-13.04347826086966</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>2.795000000000005</v>
@@ -17211,7 +17233,7 @@
         <v>4.319999999999995</v>
       </c>
       <c r="K333" t="n">
-        <v>-16.66666666666691</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>2.794000000000005</v>
@@ -17262,7 +17284,7 @@
         <v>4.319999999999995</v>
       </c>
       <c r="K334" t="n">
-        <v>-9.09090909090922</v>
+        <v>-11.1111111111116</v>
       </c>
       <c r="L334" t="n">
         <v>2.794000000000005</v>
@@ -17313,7 +17335,7 @@
         <v>4.319999999999995</v>
       </c>
       <c r="K335" t="n">
-        <v>-9.09090909090922</v>
+        <v>-11.1111111111116</v>
       </c>
       <c r="L335" t="n">
         <v>2.793000000000005</v>
@@ -17415,7 +17437,7 @@
         <v>4.349999999999994</v>
       </c>
       <c r="K337" t="n">
-        <v>4.000000000000149</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>2.795000000000006</v>
@@ -17466,7 +17488,7 @@
         <v>4.349999999999994</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L338" t="n">
         <v>2.795000000000006</v>
@@ -17517,7 +17539,7 @@
         <v>4.359999999999994</v>
       </c>
       <c r="K339" t="n">
-        <v>8.333333333333456</v>
+        <v>25.00000000000055</v>
       </c>
       <c r="L339" t="n">
         <v>2.795000000000006</v>
@@ -17568,7 +17590,7 @@
         <v>4.369999999999994</v>
       </c>
       <c r="K340" t="n">
-        <v>12.00000000000027</v>
+        <v>71.42857142857333</v>
       </c>
       <c r="L340" t="n">
         <v>2.798000000000006</v>
@@ -17619,7 +17641,7 @@
         <v>4.419999999999995</v>
       </c>
       <c r="K341" t="n">
-        <v>-23.07692307692335</v>
+        <v>-9.090909090909348</v>
       </c>
       <c r="L341" t="n">
         <v>2.798000000000006</v>
@@ -17670,7 +17692,7 @@
         <v>4.419999999999995</v>
       </c>
       <c r="K342" t="n">
-        <v>-20.00000000000032</v>
+        <v>0</v>
       </c>
       <c r="L342" t="n">
         <v>2.797000000000006</v>
@@ -17721,7 +17743,7 @@
         <v>4.419999999999995</v>
       </c>
       <c r="K343" t="n">
-        <v>-4.761904761904933</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>2.797000000000006</v>
@@ -17823,7 +17845,7 @@
         <v>4.419999999999995</v>
       </c>
       <c r="K345" t="n">
-        <v>-5.263157894737026</v>
+        <v>-25</v>
       </c>
       <c r="L345" t="n">
         <v>2.797000000000006</v>
@@ -17874,7 +17896,7 @@
         <v>4.419999999999995</v>
       </c>
       <c r="K346" t="n">
-        <v>-5.263157894737026</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L346" t="n">
         <v>2.795000000000006</v>
@@ -17925,7 +17947,7 @@
         <v>4.439999999999994</v>
       </c>
       <c r="K347" t="n">
-        <v>-20.00000000000027</v>
+        <v>-55.55555555555593</v>
       </c>
       <c r="L347" t="n">
         <v>2.790000000000006</v>
@@ -17976,7 +17998,7 @@
         <v>4.449999999999994</v>
       </c>
       <c r="K348" t="n">
-        <v>-20.00000000000027</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L348" t="n">
         <v>2.786000000000006</v>
@@ -18027,7 +18049,7 @@
         <v>4.449999999999994</v>
       </c>
       <c r="K349" t="n">
-        <v>-26.31578947368443</v>
+        <v>-75</v>
       </c>
       <c r="L349" t="n">
         <v>2.781000000000006</v>
@@ -18078,7 +18100,7 @@
         <v>4.459999999999994</v>
       </c>
       <c r="K350" t="n">
-        <v>-22.22222222222249</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L350" t="n">
         <v>2.774000000000006</v>
@@ -18129,7 +18151,7 @@
         <v>4.469999999999994</v>
       </c>
       <c r="K351" t="n">
-        <v>-5.88235294117641</v>
+        <v>-20</v>
       </c>
       <c r="L351" t="n">
         <v>2.773000000000006</v>
@@ -18180,7 +18202,7 @@
         <v>4.469999999999994</v>
       </c>
       <c r="K352" t="n">
-        <v>-12.50000000000014</v>
+        <v>-20</v>
       </c>
       <c r="L352" t="n">
         <v>2.772000000000006</v>
@@ -18231,7 +18253,7 @@
         <v>4.469999999999994</v>
       </c>
       <c r="K353" t="n">
-        <v>-6.666666666666588</v>
+        <v>-20</v>
       </c>
       <c r="L353" t="n">
         <v>2.771000000000005</v>
@@ -18282,7 +18304,7 @@
         <v>4.469999999999994</v>
       </c>
       <c r="K354" t="n">
-        <v>-6.666666666666588</v>
+        <v>-20</v>
       </c>
       <c r="L354" t="n">
         <v>2.770000000000005</v>
@@ -18333,7 +18355,7 @@
         <v>4.469999999999994</v>
       </c>
       <c r="K355" t="n">
-        <v>-6.666666666666588</v>
+        <v>-20</v>
       </c>
       <c r="L355" t="n">
         <v>2.769000000000005</v>
@@ -18384,7 +18406,7 @@
         <v>4.469999999999994</v>
       </c>
       <c r="K356" t="n">
-        <v>-23.0769230769231</v>
+        <v>33.33333333333481</v>
       </c>
       <c r="L356" t="n">
         <v>2.768000000000005</v>
@@ -18435,7 +18457,7 @@
         <v>4.479999999999993</v>
       </c>
       <c r="K357" t="n">
-        <v>-38.46153846153896</v>
+        <v>-33.33333333333481</v>
       </c>
       <c r="L357" t="n">
         <v>2.768000000000005</v>
@@ -18486,7 +18508,7 @@
         <v>4.479999999999993</v>
       </c>
       <c r="K358" t="n">
-        <v>-38.46153846153896</v>
+        <v>-33.33333333333481</v>
       </c>
       <c r="L358" t="n">
         <v>2.767000000000005</v>
@@ -18537,7 +18559,7 @@
         <v>4.479999999999993</v>
       </c>
       <c r="K359" t="n">
-        <v>-50.00000000000037</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>2.766000000000005</v>
@@ -18588,7 +18610,7 @@
         <v>4.489999999999993</v>
       </c>
       <c r="K360" t="n">
-        <v>-66.66666666666717</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L360" t="n">
         <v>2.765000000000005</v>
@@ -18639,7 +18661,7 @@
         <v>4.489999999999993</v>
       </c>
       <c r="K361" t="n">
-        <v>-42.85714285714349</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L361" t="n">
         <v>2.763000000000005</v>
@@ -18690,7 +18712,7 @@
         <v>4.509999999999993</v>
       </c>
       <c r="K362" t="n">
-        <v>-55.55555555555654</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L362" t="n">
         <v>2.759000000000005</v>
@@ -18741,7 +18763,7 @@
         <v>4.539999999999992</v>
       </c>
       <c r="K363" t="n">
-        <v>-16.66666666666704</v>
+        <v>-14.28571428571492</v>
       </c>
       <c r="L363" t="n">
         <v>2.758000000000005</v>
@@ -18792,7 +18814,7 @@
         <v>4.549999999999992</v>
       </c>
       <c r="K364" t="n">
-        <v>-23.07692307692342</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L364" t="n">
         <v>2.756000000000005</v>
@@ -18843,7 +18865,7 @@
         <v>4.569999999999991</v>
       </c>
       <c r="K365" t="n">
-        <v>-33.33333333333393</v>
+        <v>-40.00000000000089</v>
       </c>
       <c r="L365" t="n">
         <v>2.752000000000005</v>
@@ -18894,7 +18916,7 @@
         <v>4.569999999999991</v>
       </c>
       <c r="K366" t="n">
-        <v>-33.33333333333393</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L366" t="n">
         <v>2.748000000000006</v>
@@ -18945,7 +18967,7 @@
         <v>4.569999999999991</v>
       </c>
       <c r="K367" t="n">
-        <v>-23.07692307692342</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L367" t="n">
         <v>2.745000000000005</v>
@@ -18996,7 +19018,7 @@
         <v>4.609999999999991</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>7.692307692307981</v>
       </c>
       <c r="L368" t="n">
         <v>2.746000000000005</v>
@@ -19047,7 +19069,7 @@
         <v>4.619999999999991</v>
       </c>
       <c r="K369" t="n">
-        <v>5.88235294117644</v>
+        <v>23.07692307692326</v>
       </c>
       <c r="L369" t="n">
         <v>2.748000000000006</v>
@@ -19098,7 +19120,7 @@
         <v>4.649999999999991</v>
       </c>
       <c r="K370" t="n">
-        <v>26.31578947368466</v>
+        <v>37.50000000000042</v>
       </c>
       <c r="L370" t="n">
         <v>2.754000000000005</v>
@@ -19149,7 +19171,7 @@
         <v>4.649999999999991</v>
       </c>
       <c r="K371" t="n">
-        <v>22.22222222222249</v>
+        <v>57.14285714285769</v>
       </c>
       <c r="L371" t="n">
         <v>2.760000000000005</v>
@@ -19200,7 +19222,7 @@
         <v>4.659999999999991</v>
       </c>
       <c r="K372" t="n">
-        <v>15.78947368421061</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L372" t="n">
         <v>2.767000000000005</v>
@@ -19251,7 +19273,7 @@
         <v>4.659999999999991</v>
       </c>
       <c r="K373" t="n">
-        <v>15.78947368421061</v>
+        <v>45.45454545454552</v>
       </c>
       <c r="L373" t="n">
         <v>2.771000000000005</v>
@@ -19302,7 +19324,7 @@
         <v>4.659999999999991</v>
       </c>
       <c r="K374" t="n">
-        <v>15.78947368421061</v>
+        <v>77.77777777777773</v>
       </c>
       <c r="L374" t="n">
         <v>2.776000000000005</v>
@@ -19353,7 +19375,7 @@
         <v>4.659999999999991</v>
       </c>
       <c r="K375" t="n">
-        <v>15.78947368421061</v>
+        <v>77.77777777777773</v>
       </c>
       <c r="L375" t="n">
         <v>2.783000000000005</v>
@@ -19404,7 +19426,7 @@
         <v>4.659999999999991</v>
       </c>
       <c r="K376" t="n">
-        <v>15.78947368421061</v>
+        <v>77.77777777777773</v>
       </c>
       <c r="L376" t="n">
         <v>2.790000000000005</v>
@@ -19455,7 +19477,7 @@
         <v>4.659999999999991</v>
       </c>
       <c r="K377" t="n">
-        <v>22.22222222222249</v>
+        <v>59.99999999999982</v>
       </c>
       <c r="L377" t="n">
         <v>2.797000000000005</v>
@@ -19506,7 +19528,7 @@
         <v>4.659999999999991</v>
       </c>
       <c r="K378" t="n">
-        <v>22.22222222222249</v>
+        <v>50</v>
       </c>
       <c r="L378" t="n">
         <v>2.800000000000005</v>
@@ -19557,7 +19579,7 @@
         <v>4.659999999999991</v>
       </c>
       <c r="K379" t="n">
-        <v>22.22222222222249</v>
+        <v>-100.0000000000044</v>
       </c>
       <c r="L379" t="n">
         <v>2.802000000000005</v>
@@ -19608,7 +19630,7 @@
         <v>4.689999999999991</v>
       </c>
       <c r="K380" t="n">
-        <v>10.00000000000013</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L380" t="n">
         <v>2.798000000000005</v>
@@ -19659,7 +19681,7 @@
         <v>4.689999999999991</v>
       </c>
       <c r="K381" t="n">
-        <v>10.00000000000013</v>
+        <v>-100.0000000000015</v>
       </c>
       <c r="L381" t="n">
         <v>2.794000000000005</v>
@@ -19710,7 +19732,7 @@
         <v>4.71999999999999</v>
       </c>
       <c r="K382" t="n">
-        <v>4.761904761904933</v>
+        <v>-100.0000000000015</v>
       </c>
       <c r="L382" t="n">
         <v>2.788000000000006</v>
@@ -19761,7 +19783,7 @@
         <v>4.749999999999989</v>
       </c>
       <c r="K383" t="n">
-        <v>4.761904761904933</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L383" t="n">
         <v>2.785000000000005</v>
@@ -19812,7 +19834,7 @@
         <v>4.749999999999989</v>
       </c>
       <c r="K384" t="n">
-        <v>10.00000000000013</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L384" t="n">
         <v>2.782000000000005</v>
@@ -19863,7 +19885,7 @@
         <v>4.759999999999989</v>
       </c>
       <c r="K385" t="n">
-        <v>15.78947368421061</v>
+        <v>-40.00000000000089</v>
       </c>
       <c r="L385" t="n">
         <v>2.778000000000005</v>
@@ -19914,7 +19936,7 @@
         <v>4.759999999999989</v>
       </c>
       <c r="K386" t="n">
-        <v>15.78947368421061</v>
+        <v>-40.00000000000089</v>
       </c>
       <c r="L386" t="n">
         <v>2.774000000000005</v>
@@ -19965,7 +19987,7 @@
         <v>4.769999999999989</v>
       </c>
       <c r="K387" t="n">
-        <v>10.00000000000013</v>
+        <v>-45.45454545454626</v>
       </c>
       <c r="L387" t="n">
         <v>2.769000000000005</v>
@@ -20016,7 +20038,7 @@
         <v>4.769999999999989</v>
       </c>
       <c r="K388" t="n">
-        <v>-12.50000000000021</v>
+        <v>-45.45454545454626</v>
       </c>
       <c r="L388" t="n">
         <v>2.764000000000006</v>
@@ -20067,7 +20089,7 @@
         <v>4.769999999999989</v>
       </c>
       <c r="K389" t="n">
-        <v>-20.00000000000018</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L389" t="n">
         <v>2.759000000000005</v>
@@ -20118,7 +20140,7 @@
         <v>4.779999999999989</v>
       </c>
       <c r="K390" t="n">
-        <v>-38.46153846153948</v>
+        <v>-11.1111111111116</v>
       </c>
       <c r="L390" t="n">
         <v>2.758000000000005</v>
@@ -20169,7 +20191,7 @@
         <v>4.809999999999989</v>
       </c>
       <c r="K391" t="n">
-        <v>-12.50000000000021</v>
+        <v>55.55555555555599</v>
       </c>
       <c r="L391" t="n">
         <v>2.760000000000005</v>
@@ -20220,7 +20242,7 @@
         <v>4.849999999999989</v>
       </c>
       <c r="K392" t="n">
-        <v>15.78947368421085</v>
+        <v>60.00000000000026</v>
       </c>
       <c r="L392" t="n">
         <v>2.769000000000005</v>
@@ -20271,7 +20293,7 @@
         <v>4.869999999999989</v>
       </c>
       <c r="K393" t="n">
-        <v>4.761904761904933</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L393" t="n">
         <v>2.773000000000005</v>
@@ -20322,7 +20344,7 @@
         <v>4.869999999999989</v>
       </c>
       <c r="K394" t="n">
-        <v>4.761904761904933</v>
+        <v>45.45454545454593</v>
       </c>
       <c r="L394" t="n">
         <v>2.777000000000005</v>
@@ -20373,7 +20395,7 @@
         <v>4.879999999999988</v>
       </c>
       <c r="K395" t="n">
-        <v>0</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L395" t="n">
         <v>2.781000000000005</v>
@@ -20424,7 +20446,7 @@
         <v>4.889999999999988</v>
       </c>
       <c r="K396" t="n">
-        <v>4.347826086956681</v>
+        <v>50.00000000000037</v>
       </c>
       <c r="L396" t="n">
         <v>2.786000000000004</v>
@@ -20475,7 +20497,7 @@
         <v>4.909999999999988</v>
       </c>
       <c r="K397" t="n">
-        <v>12.00000000000027</v>
+        <v>57.14285714285769</v>
       </c>
       <c r="L397" t="n">
         <v>2.794000000000004</v>
@@ -20526,7 +20548,7 @@
         <v>4.929999999999987</v>
       </c>
       <c r="K398" t="n">
-        <v>18.51851851851889</v>
+        <v>62.5000000000007</v>
       </c>
       <c r="L398" t="n">
         <v>2.804000000000004</v>
@@ -20577,7 +20599,7 @@
         <v>4.949999999999987</v>
       </c>
       <c r="K399" t="n">
-        <v>24.13793103448322</v>
+        <v>64.70588235294207</v>
       </c>
       <c r="L399" t="n">
         <v>2.816000000000004</v>
@@ -20628,7 +20650,7 @@
         <v>4.969999999999986</v>
       </c>
       <c r="K400" t="n">
-        <v>28.57142857142902</v>
+        <v>37.50000000000063</v>
       </c>
       <c r="L400" t="n">
         <v>2.825000000000004</v>
@@ -20679,7 +20701,7 @@
         <v>5.019999999999986</v>
       </c>
       <c r="K401" t="n">
-        <v>39.39393939393988</v>
+        <v>41.17647058823587</v>
       </c>
       <c r="L401" t="n">
         <v>2.836000000000004</v>
@@ -20730,7 +20752,7 @@
         <v>5.019999999999986</v>
       </c>
       <c r="K402" t="n">
-        <v>53.3333333333339</v>
+        <v>60.00000000000083</v>
       </c>
       <c r="L402" t="n">
         <v>2.843000000000004</v>
@@ -20781,7 +20803,7 @@
         <v>5.029999999999987</v>
       </c>
       <c r="K403" t="n">
-        <v>50.00000000000048</v>
+        <v>62.5000000000007</v>
       </c>
       <c r="L403" t="n">
         <v>2.853000000000004</v>
@@ -20832,7 +20854,7 @@
         <v>5.039999999999987</v>
       </c>
       <c r="K404" t="n">
-        <v>44.82758620689692</v>
+        <v>62.5000000000007</v>
       </c>
       <c r="L404" t="n">
         <v>2.862000000000005</v>
@@ -20883,7 +20905,7 @@
         <v>5.059999999999986</v>
       </c>
       <c r="K405" t="n">
-        <v>40.00000000000041</v>
+        <v>41.17647058823565</v>
       </c>
       <c r="L405" t="n">
         <v>2.870000000000004</v>
@@ -20934,7 +20956,7 @@
         <v>5.059999999999986</v>
       </c>
       <c r="K406" t="n">
-        <v>40.00000000000041</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L406" t="n">
         <v>2.877000000000004</v>
@@ -20985,7 +21007,7 @@
         <v>5.059999999999986</v>
       </c>
       <c r="K407" t="n">
-        <v>44.82758620689692</v>
+        <v>23.0769230769231</v>
       </c>
       <c r="L407" t="n">
         <v>2.882000000000004</v>
@@ -21036,7 +21058,7 @@
         <v>5.079999999999986</v>
       </c>
       <c r="K408" t="n">
-        <v>35.48387096774224</v>
+        <v>-7.692307692307929</v>
       </c>
       <c r="L408" t="n">
         <v>2.883000000000004</v>
@@ -21087,7 +21109,7 @@
         <v>5.079999999999986</v>
       </c>
       <c r="K409" t="n">
-        <v>35.48387096774224</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L409" t="n">
         <v>2.882000000000004</v>
@@ -21138,7 +21160,7 @@
         <v>5.099999999999985</v>
       </c>
       <c r="K410" t="n">
-        <v>25.00000000000028</v>
+        <v>-75.00000000000084</v>
       </c>
       <c r="L410" t="n">
         <v>2.881000000000004</v>
@@ -21189,7 +21211,7 @@
         <v>5.129999999999986</v>
       </c>
       <c r="K411" t="n">
-        <v>25.00000000000028</v>
+        <v>-27.27272727272724</v>
       </c>
       <c r="L411" t="n">
         <v>2.878000000000004</v>
@@ -21240,7 +21262,7 @@
         <v>5.139999999999985</v>
       </c>
       <c r="K412" t="n">
-        <v>17.24137931034497</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L412" t="n">
         <v>2.876000000000004</v>
@@ -21291,7 +21313,7 @@
         <v>5.169999999999986</v>
       </c>
       <c r="K413" t="n">
-        <v>13.33333333333347</v>
+        <v>-38.46153846153862</v>
       </c>
       <c r="L413" t="n">
         <v>2.870000000000004</v>
@@ -21342,7 +21364,7 @@
         <v>5.189999999999985</v>
       </c>
       <c r="K414" t="n">
-        <v>6.250000000000069</v>
+        <v>-38.46153846153862</v>
       </c>
       <c r="L414" t="n">
         <v>2.863000000000004</v>
@@ -21393,7 +21415,7 @@
         <v>5.199999999999985</v>
       </c>
       <c r="K415" t="n">
-        <v>6.250000000000069</v>
+        <v>-42.85714285714327</v>
       </c>
       <c r="L415" t="n">
         <v>2.857000000000005</v>
@@ -21444,7 +21466,7 @@
         <v>5.229999999999985</v>
       </c>
       <c r="K416" t="n">
-        <v>11.76470588235305</v>
+        <v>-17.6470588235294</v>
       </c>
       <c r="L416" t="n">
         <v>2.854000000000005</v>
@@ -21495,7 +21517,7 @@
         <v>5.249999999999986</v>
       </c>
       <c r="K417" t="n">
-        <v>0</v>
+        <v>-17.64705882352931</v>
       </c>
       <c r="L417" t="n">
         <v>2.849000000000005</v>
@@ -21546,7 +21568,7 @@
         <v>5.259999999999986</v>
       </c>
       <c r="K418" t="n">
-        <v>-3.030303030303116</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L418" t="n">
         <v>2.847000000000005</v>
@@ -21597,7 +21619,7 @@
         <v>5.259999999999986</v>
       </c>
       <c r="K419" t="n">
-        <v>-9.677419354838831</v>
+        <v>0</v>
       </c>
       <c r="L419" t="n">
         <v>2.845000000000005</v>
@@ -21648,7 +21670,7 @@
         <v>5.259999999999986</v>
       </c>
       <c r="K420" t="n">
-        <v>-3.448275862069055</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L420" t="n">
         <v>2.845000000000005</v>
@@ -21699,7 +21721,7 @@
         <v>5.259999999999986</v>
       </c>
       <c r="K421" t="n">
-        <v>-25.0000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L421" t="n">
         <v>2.842000000000005</v>
@@ -21750,7 +21772,7 @@
         <v>5.279999999999985</v>
       </c>
       <c r="K422" t="n">
-        <v>-15.38461538461546</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L422" t="n">
         <v>2.840000000000005</v>
@@ -21801,7 +21823,7 @@
         <v>5.309999999999985</v>
       </c>
       <c r="K423" t="n">
-        <v>-28.57142857142884</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>2.838000000000005</v>
@@ -21852,7 +21874,7 @@
         <v>5.319999999999984</v>
       </c>
       <c r="K424" t="n">
-        <v>-28.57142857142884</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>2.837000000000005</v>
@@ -21903,7 +21925,7 @@
         <v>5.339999999999984</v>
       </c>
       <c r="K425" t="n">
-        <v>-14.28571428571442</v>
+        <v>-9.090909090909422</v>
       </c>
       <c r="L425" t="n">
         <v>2.839000000000005</v>
@@ -21954,7 +21976,7 @@
         <v>5.389999999999985</v>
       </c>
       <c r="K426" t="n">
-        <v>3.030303030303116</v>
+        <v>42.85714285714327</v>
       </c>
       <c r="L426" t="n">
         <v>2.843000000000004</v>
@@ -22005,7 +22027,7 @@
         <v>5.409999999999984</v>
       </c>
       <c r="K427" t="n">
-        <v>8.571428571428696</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L427" t="n">
         <v>2.851000000000005</v>
@@ -22056,7 +22078,7 @@
         <v>5.449999999999984</v>
       </c>
       <c r="K428" t="n">
-        <v>2.702702702702777</v>
+        <v>15.78947368421077</v>
       </c>
       <c r="L428" t="n">
         <v>2.854000000000005</v>
@@ -22107,7 +22129,7 @@
         <v>5.489999999999984</v>
       </c>
       <c r="K429" t="n">
-        <v>12.19512195121963</v>
+        <v>30.43478260869595</v>
       </c>
       <c r="L429" t="n">
         <v>2.861000000000005</v>
@@ -22158,7 +22180,7 @@
         <v>5.499999999999984</v>
       </c>
       <c r="K430" t="n">
-        <v>20.00000000000009</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L430" t="n">
         <v>2.869000000000005</v>
@@ -22209,7 +22231,7 @@
         <v>5.529999999999983</v>
       </c>
       <c r="K431" t="n">
-        <v>5.000000000000034</v>
+        <v>12.00000000000018</v>
       </c>
       <c r="L431" t="n">
         <v>2.874000000000005</v>
@@ -22260,7 +22282,7 @@
         <v>5.539999999999983</v>
       </c>
       <c r="K432" t="n">
-        <v>0</v>
+        <v>21.73913043478266</v>
       </c>
       <c r="L432" t="n">
         <v>2.876000000000005</v>
@@ -22311,7 +22333,7 @@
         <v>5.549999999999983</v>
       </c>
       <c r="K433" t="n">
-        <v>10.52631578947377</v>
+        <v>30.43478260869595</v>
       </c>
       <c r="L433" t="n">
         <v>2.882000000000005</v>
@@ -22362,7 +22384,7 @@
         <v>5.569999999999983</v>
       </c>
       <c r="K434" t="n">
-        <v>10.52631578947377</v>
+        <v>13.04347826086975</v>
       </c>
       <c r="L434" t="n">
         <v>2.887000000000005</v>
@@ -22413,7 +22435,7 @@
         <v>5.629999999999983</v>
       </c>
       <c r="K435" t="n">
-        <v>-2.325581395348799</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L435" t="n">
         <v>2.884000000000005</v>
@@ -22464,7 +22486,7 @@
         <v>5.659999999999982</v>
       </c>
       <c r="K436" t="n">
-        <v>-2.325581395348907</v>
+        <v>-28.00000000000031</v>
       </c>
       <c r="L436" t="n">
         <v>2.879000000000005</v>
@@ -22515,7 +22537,7 @@
         <v>5.669999999999982</v>
       </c>
       <c r="K437" t="n">
-        <v>0</v>
+        <v>-18.18181818181836</v>
       </c>
       <c r="L437" t="n">
         <v>2.871000000000005</v>
@@ -22566,7 +22588,7 @@
         <v>5.729999999999983</v>
       </c>
       <c r="K438" t="n">
-        <v>10.63829787234055</v>
+        <v>-8.333333333333396</v>
       </c>
       <c r="L438" t="n">
         <v>2.873000000000005</v>
@@ -22617,7 +22639,7 @@
         <v>5.729999999999983</v>
       </c>
       <c r="K439" t="n">
-        <v>10.63829787234055</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L439" t="n">
         <v>2.871000000000005</v>
@@ -22668,7 +22690,7 @@
         <v>5.749999999999982</v>
       </c>
       <c r="K440" t="n">
-        <v>6.122448979591929</v>
+        <v>-9.090909090909145</v>
       </c>
       <c r="L440" t="n">
         <v>2.866000000000005</v>
@@ -22719,7 +22741,7 @@
         <v>5.749999999999982</v>
       </c>
       <c r="K441" t="n">
-        <v>6.122448979591929</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L441" t="n">
         <v>2.864000000000005</v>
@@ -22770,7 +22792,7 @@
         <v>5.749999999999982</v>
       </c>
       <c r="K442" t="n">
-        <v>2.127659574468148</v>
+        <v>-10.00000000000004</v>
       </c>
       <c r="L442" t="n">
         <v>2.863000000000005</v>
@@ -22821,7 +22843,7 @@
         <v>5.769999999999982</v>
       </c>
       <c r="K443" t="n">
-        <v>4.347826086956552</v>
+        <v>-10.00000000000004</v>
       </c>
       <c r="L443" t="n">
         <v>2.859000000000005</v>
@@ -22872,7 +22894,7 @@
         <v>5.789999999999981</v>
       </c>
       <c r="K444" t="n">
-        <v>10.63829787234055</v>
+        <v>37.50000000000042</v>
       </c>
       <c r="L444" t="n">
         <v>2.859000000000005</v>
@@ -22923,7 +22945,7 @@
         <v>5.849999999999982</v>
       </c>
       <c r="K445" t="n">
-        <v>17.64705882352954</v>
+        <v>47.36842105263186</v>
       </c>
       <c r="L445" t="n">
         <v>2.871000000000005</v>
@@ -22974,7 +22996,7 @@
         <v>5.889999999999982</v>
       </c>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>27.27272727272733</v>
       </c>
       <c r="L446" t="n">
         <v>2.876000000000005</v>
@@ -23025,7 +23047,7 @@
         <v>5.899999999999983</v>
       </c>
       <c r="K447" t="n">
-        <v>-6.122448979591907</v>
+        <v>-5.882352941176609</v>
       </c>
       <c r="L447" t="n">
         <v>2.881000000000005</v>
@@ -23076,7 +23098,7 @@
         <v>5.909999999999982</v>
       </c>
       <c r="K448" t="n">
-        <v>4.347826086956543</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>2.881000000000005</v>
@@ -23127,7 +23149,7 @@
         <v>5.919999999999982</v>
       </c>
       <c r="K449" t="n">
-        <v>-2.325581395348902</v>
+        <v>17.64705882352931</v>
       </c>
       <c r="L449" t="n">
         <v>2.882000000000005</v>
@@ -23178,7 +23200,7 @@
         <v>5.919999999999982</v>
       </c>
       <c r="K450" t="n">
-        <v>-4.761904761904788</v>
+        <v>17.64705882352931</v>
       </c>
       <c r="L450" t="n">
         <v>2.885000000000005</v>
@@ -23229,7 +23251,7 @@
         <v>5.919999999999982</v>
       </c>
       <c r="K451" t="n">
-        <v>2.564102564102518</v>
+        <v>17.64705882352931</v>
       </c>
       <c r="L451" t="n">
         <v>2.888000000000004</v>
@@ -23280,7 +23302,7 @@
         <v>5.919999999999982</v>
       </c>
       <c r="K452" t="n">
-        <v>5.26315789473686</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L452" t="n">
         <v>2.891000000000004</v>
@@ -23331,7 +23353,7 @@
         <v>5.929999999999982</v>
       </c>
       <c r="K453" t="n">
-        <v>5.26315789473686</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L453" t="n">
         <v>2.897000000000004</v>
@@ -23382,7 +23404,7 @@
         <v>5.929999999999982</v>
       </c>
       <c r="K454" t="n">
-        <v>11.11111111111114</v>
+        <v>-25</v>
       </c>
       <c r="L454" t="n">
         <v>2.901000000000004</v>
@@ -23433,7 +23455,7 @@
         <v>5.959999999999981</v>
       </c>
       <c r="K455" t="n">
-        <v>39.39393939393956</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L455" t="n">
         <v>2.902000000000004</v>
@@ -23484,7 +23506,7 @@
         <v>5.979999999999981</v>
       </c>
       <c r="K456" t="n">
-        <v>37.50000000000021</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L456" t="n">
         <v>2.909000000000004</v>
@@ -23535,7 +23557,7 @@
         <v>6.029999999999981</v>
       </c>
       <c r="K457" t="n">
-        <v>22.22222222222233</v>
+        <v>16.66666666666691</v>
       </c>
       <c r="L457" t="n">
         <v>2.912000000000004</v>
@@ -23586,7 +23608,7 @@
         <v>6.059999999999981</v>
       </c>
       <c r="K458" t="n">
-        <v>15.15151515151518</v>
+        <v>28.57142857142884</v>
       </c>
       <c r="L458" t="n">
         <v>2.917000000000004</v>
@@ -23637,7 +23659,7 @@
         <v>6.069999999999981</v>
       </c>
       <c r="K459" t="n">
-        <v>17.64705882352953</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L459" t="n">
         <v>2.922000000000005</v>
@@ -23688,7 +23710,7 @@
         <v>6.079999999999981</v>
       </c>
       <c r="K460" t="n">
-        <v>21.21212121212127</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L460" t="n">
         <v>2.926000000000005</v>

--- a/BackTest/2019-10-17 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-17 BackTest ANKR.xlsx
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -11091,14 +11091,20 @@
         <v>2.877166666666668</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2.78</v>
+      </c>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11126,14 +11132,20 @@
         <v>2.875333333333334</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11161,14 +11173,20 @@
         <v>2.873666666666667</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2.79</v>
+      </c>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11203,7 +11221,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11231,14 +11253,20 @@
         <v>2.870166666666667</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2.79</v>
+      </c>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11266,14 +11294,20 @@
         <v>2.868833333333334</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2.8</v>
+      </c>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11301,14 +11335,20 @@
         <v>2.867500000000001</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2.81</v>
+      </c>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11336,14 +11376,20 @@
         <v>2.866166666666667</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2.82</v>
+      </c>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11424,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11413,7 +11463,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11448,7 +11502,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11483,7 +11541,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11518,7 +11580,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11553,7 +11619,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11588,7 +11658,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11623,7 +11697,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11658,7 +11736,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11693,7 +11775,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11728,7 +11814,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11763,7 +11853,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11798,7 +11892,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11833,7 +11931,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +11970,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -11903,7 +12009,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11938,7 +12048,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -11973,7 +12087,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12008,7 +12126,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12043,7 +12165,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12078,7 +12204,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12113,7 +12243,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12148,7 +12282,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12183,7 +12321,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12218,7 +12360,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12253,7 +12399,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12288,7 +12438,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12323,7 +12477,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12358,7 +12516,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12393,7 +12555,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12428,7 +12594,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12463,7 +12633,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12498,7 +12672,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12711,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12561,18 +12743,16 @@
         <v>2.800333333333335</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M348" t="n">
@@ -12602,14 +12782,12 @@
         <v>2.798666666666669</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -12643,14 +12821,12 @@
         <v>2.797000000000002</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -12684,14 +12860,12 @@
         <v>2.795500000000002</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -12725,14 +12899,12 @@
         <v>2.794333333333335</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -12766,14 +12938,12 @@
         <v>2.793333333333335</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -12807,14 +12977,12 @@
         <v>2.792166666666668</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -12848,14 +13016,12 @@
         <v>2.791333333333335</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
@@ -12889,14 +13055,12 @@
         <v>2.790500000000002</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -12930,14 +13094,12 @@
         <v>2.790166666666669</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -12971,14 +13133,12 @@
         <v>2.789833333333335</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -13012,14 +13172,12 @@
         <v>2.789333333333336</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13053,14 +13211,12 @@
         <v>2.788500000000002</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13094,14 +13250,12 @@
         <v>2.787833333333336</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>2.75</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13135,14 +13289,12 @@
         <v>2.787000000000002</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13176,14 +13328,12 @@
         <v>2.786833333333335</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13217,14 +13367,12 @@
         <v>2.786333333333335</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13258,14 +13406,12 @@
         <v>2.785500000000001</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>2.75</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -13299,14 +13445,12 @@
         <v>2.785000000000001</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -13340,14 +13484,12 @@
         <v>2.784000000000001</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
@@ -13381,14 +13523,12 @@
         <v>2.783666666666668</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -13422,14 +13562,12 @@
         <v>2.783500000000002</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>2.78</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
@@ -13463,14 +13601,12 @@
         <v>2.783666666666668</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>2.78</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
@@ -13504,14 +13640,12 @@
         <v>2.783666666666668</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>2.81</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -13545,14 +13679,12 @@
         <v>2.783333333333335</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
@@ -13586,14 +13718,12 @@
         <v>2.783000000000002</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -13627,14 +13757,12 @@
         <v>2.783000000000002</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
@@ -13668,14 +13796,12 @@
         <v>2.783000000000002</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -13709,14 +13835,12 @@
         <v>2.783000000000002</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -13750,14 +13874,12 @@
         <v>2.783000000000002</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -13791,14 +13913,12 @@
         <v>2.782833333333336</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -13832,14 +13952,12 @@
         <v>2.782833333333336</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -13873,14 +13991,12 @@
         <v>2.782333333333336</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -13953,14 +14069,12 @@
         <v>2.779666666666669</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>2.74</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -13994,14 +14108,12 @@
         <v>2.779333333333336</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
@@ -14035,14 +14147,12 @@
         <v>2.779166666666669</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
@@ -14076,14 +14186,12 @@
         <v>2.778666666666669</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -14117,14 +14225,12 @@
         <v>2.77816666666667</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>2.78</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -14158,14 +14264,12 @@
         <v>2.777333333333336</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>2.75</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
@@ -14199,14 +14303,12 @@
         <v>2.776333333333336</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>2.75</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
@@ -14240,14 +14342,12 @@
         <v>2.775166666666669</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>2.75</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -14281,14 +14381,12 @@
         <v>2.774500000000002</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -14322,14 +14420,12 @@
         <v>2.774666666666669</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>2.78</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -14363,14 +14459,12 @@
         <v>2.775333333333336</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>2.81</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
@@ -14404,14 +14498,12 @@
         <v>2.775833333333336</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>2.81</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -14445,14 +14537,12 @@
         <v>2.776333333333336</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
@@ -14486,14 +14576,12 @@
         <v>2.77666666666667</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
@@ -14527,14 +14615,12 @@
         <v>2.776833333333336</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>2.81</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
@@ -14568,14 +14654,12 @@
         <v>2.777166666666669</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
@@ -14807,18 +14891,16 @@
         <v>0</v>
       </c>
       <c r="I403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M403" t="n">
-        <v>1</v>
-      </c>
+      <c r="M403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -14846,15 +14928,11 @@
         <v>0</v>
       </c>
       <c r="I404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14885,15 +14963,11 @@
         <v>0</v>
       </c>
       <c r="I405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14924,15 +14998,11 @@
         <v>0</v>
       </c>
       <c r="I406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14963,15 +15033,11 @@
         <v>0</v>
       </c>
       <c r="I407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15006,11 +15072,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15041,15 +15103,11 @@
         <v>0</v>
       </c>
       <c r="I409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15084,11 +15142,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15119,15 +15173,11 @@
         <v>0</v>
       </c>
       <c r="I411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15162,11 +15212,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15197,15 +15243,11 @@
         <v>0</v>
       </c>
       <c r="I413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15236,15 +15278,11 @@
         <v>0</v>
       </c>
       <c r="I414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15275,15 +15313,11 @@
         <v>0</v>
       </c>
       <c r="I415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15318,11 +15352,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15357,11 +15387,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15396,11 +15422,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15435,11 +15457,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15474,11 +15492,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15513,11 +15527,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15552,11 +15562,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15591,11 +15597,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15630,11 +15632,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15669,11 +15667,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15708,11 +15702,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15747,11 +15737,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15786,11 +15772,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15821,15 +15803,11 @@
         <v>0</v>
       </c>
       <c r="I429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15864,11 +15842,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15903,11 +15877,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15942,11 +15912,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15981,11 +15947,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16020,11 +15982,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16059,11 +16017,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16098,11 +16052,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16137,11 +16087,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16176,11 +16122,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16215,11 +16157,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-17 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-17 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>26857233.98729505</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>23598639.67899505</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>21264662.80449505</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>20479933.30899505</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>19633610.09029505</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>20290102.40979505</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>21670333.84619505</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>21222126.70939505</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>21160937.70939505</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>20737965.33449506</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>20737965.33449506</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>20760104.13689506</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>25071003.87189506</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>33282022.08079506</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>32776208.50809506</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>32605140.62419505</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>31669978.05469505</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>31948763.15549505</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>31500825.05389505</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>31106280.96559505</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>31133291.23669505</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>32113080.09109505</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>31673829.68569505</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>31990451.53989505</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>32050547.42269506</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>32050547.42269506</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>32212532.23949505</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>32212532.23949505</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>32399944.23949505</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>32394829.61679506</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>32130421.53539506</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>32468998.92829506</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>32410794.60959506</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>32260794.60959506</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>32252204.98699506</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>32216054.98699506</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>32216054.98699506</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>32044935.39079506</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>33158180.46219506</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>33211615.11139506</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>33556702.54709506</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>33556702.54709506</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>33556702.54709506</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>32977590.84399506</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>32977590.84399506</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>33477568.69069506</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>33207513.43249506</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>33208013.43249506</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>33122882.31319506</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>28051347.77479506</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>28073972.02939506</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>27926445.51859506</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>27908134.50299506</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>26228932.18869506</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>25134022.13699507</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>24860641.23955063</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>24700869.23955063</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>24704869.23955063</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>25230932.88475297</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>25487556.22245296</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>25460711.39165296</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>25461697.48435296</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>25146759.66595297</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>25419649.94215297</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>24930372.41375297</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>25061869.70375296</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>24118445.19755296</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>23773223.19755296</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>23819725.91565296</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>23710994.98135296</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>23957258.98135296</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -12793,1648 +12793,1510 @@
         <v>19776422.3316048</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="D377" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E377" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F377" t="n">
+        <v>6104.6611</v>
+      </c>
+      <c r="G377" t="n">
+        <v>19782526.9927048</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
         <v>2.8</v>
       </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
+      <c r="C378" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E378" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F378" t="n">
+        <v>189472.6312</v>
+      </c>
+      <c r="G378" t="n">
+        <v>19593054.3615048</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D379" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F379" t="n">
+        <v>1089222.6368</v>
+      </c>
+      <c r="G379" t="n">
+        <v>19593054.3615048</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F380" t="n">
+        <v>822113.1128999999</v>
+      </c>
+      <c r="G380" t="n">
+        <v>20415167.4744048</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E381" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F381" t="n">
+        <v>74619</v>
+      </c>
+      <c r="G381" t="n">
+        <v>20340548.4744048</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E382" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F382" t="n">
+        <v>62180.0741</v>
+      </c>
+      <c r="G382" t="n">
+        <v>20278368.4003048</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D383" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E383" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F383" t="n">
+        <v>118575.7573</v>
+      </c>
+      <c r="G383" t="n">
+        <v>20159792.6430048</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D384" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E384" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F384" t="n">
+        <v>6471</v>
+      </c>
+      <c r="G384" t="n">
+        <v>20166263.6430048</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D385" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F385" t="n">
+        <v>230172.0302</v>
+      </c>
+      <c r="G385" t="n">
+        <v>20166263.6430048</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E386" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F386" t="n">
+        <v>56155.93491428572</v>
+      </c>
+      <c r="G386" t="n">
+        <v>20222419.57791908</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E387" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F387" t="n">
+        <v>133637</v>
+      </c>
+      <c r="G387" t="n">
+        <v>20356056.57791908</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E388" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F388" t="n">
+        <v>100</v>
+      </c>
+      <c r="G388" t="n">
+        <v>20356156.57791908</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F389" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G389" t="n">
+        <v>20336156.57791908</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E390" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F390" t="n">
+        <v>107408.142</v>
+      </c>
+      <c r="G390" t="n">
+        <v>20228748.43591908</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E391" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F391" t="n">
+        <v>11187.8136</v>
+      </c>
+      <c r="G391" t="n">
+        <v>20239936.24951908</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E392" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F392" t="n">
+        <v>27162.6474</v>
+      </c>
+      <c r="G392" t="n">
+        <v>20212773.60211908</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D393" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E393" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F393" t="n">
+        <v>33630</v>
+      </c>
+      <c r="G393" t="n">
+        <v>20212773.60211908</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D394" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E394" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F394" t="n">
+        <v>30830.3988</v>
+      </c>
+      <c r="G394" t="n">
+        <v>20212773.60211908</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D395" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E395" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F395" t="n">
+        <v>8958.713100000001</v>
+      </c>
+      <c r="G395" t="n">
+        <v>20221732.31521909</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="D396" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E396" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F396" t="n">
+        <v>403075.9192</v>
+      </c>
+      <c r="G396" t="n">
+        <v>20624808.23441909</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="D397" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E397" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F397" t="n">
+        <v>5435.0073</v>
+      </c>
+      <c r="G397" t="n">
+        <v>20624808.23441909</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="D398" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E398" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F398" t="n">
+        <v>33950</v>
+      </c>
+      <c r="G398" t="n">
+        <v>20658758.23441909</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E399" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F399" t="n">
+        <v>471637.2531</v>
+      </c>
+      <c r="G399" t="n">
+        <v>21130395.48751909</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D400" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E400" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F400" t="n">
+        <v>97350</v>
+      </c>
+      <c r="G400" t="n">
+        <v>21033045.48751909</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E401" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F401" t="n">
+        <v>41077.7131</v>
+      </c>
+      <c r="G401" t="n">
+        <v>21033045.48751909</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E402" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F402" t="n">
+        <v>80718.6649</v>
+      </c>
+      <c r="G402" t="n">
+        <v>21033045.48751909</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E403" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F403" t="n">
+        <v>18423.7708</v>
+      </c>
+      <c r="G403" t="n">
+        <v>21033045.48751909</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F404" t="n">
+        <v>4997.9662</v>
+      </c>
+      <c r="G404" t="n">
+        <v>21033045.48751909</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E405" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F405" t="n">
+        <v>20289.9018</v>
+      </c>
+      <c r="G405" t="n">
+        <v>21033045.48751909</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E406" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F406" t="n">
+        <v>654798.4304</v>
+      </c>
+      <c r="G406" t="n">
+        <v>20378247.05711909</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E407" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F407" t="n">
+        <v>442582.2518</v>
+      </c>
+      <c r="G407" t="n">
+        <v>20820829.30891909</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E408" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F408" t="n">
+        <v>822475.8064</v>
+      </c>
+      <c r="G408" t="n">
+        <v>20820829.30891909</v>
+      </c>
+      <c r="H408" t="n">
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J408" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E409" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F409" t="n">
+        <v>880958.5924</v>
+      </c>
+      <c r="G409" t="n">
+        <v>19939870.71651909</v>
+      </c>
+      <c r="H409" t="n">
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J409" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F410" t="n">
+        <v>435043.7328</v>
+      </c>
+      <c r="G410" t="n">
+        <v>20374914.44931909</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J410" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F411" t="n">
+        <v>576101.2798</v>
+      </c>
+      <c r="G411" t="n">
+        <v>20374914.44931909</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J411" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E412" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F412" t="n">
+        <v>87267.56110000001</v>
+      </c>
+      <c r="G412" t="n">
+        <v>20374914.44931909</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J412" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E413" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F413" t="n">
+        <v>15.5234</v>
+      </c>
+      <c r="G413" t="n">
+        <v>20374914.44931909</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J413" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F414" t="n">
+        <v>155126.1957</v>
+      </c>
+      <c r="G414" t="n">
+        <v>20374914.44931909</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J414" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E415" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F415" t="n">
+        <v>3924.0308</v>
+      </c>
+      <c r="G415" t="n">
+        <v>20374914.44931909</v>
+      </c>
+      <c r="H415" t="n">
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J415" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E416" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F416" t="n">
+        <v>17876.2443</v>
+      </c>
+      <c r="G416" t="n">
+        <v>20357038.20501909</v>
+      </c>
+      <c r="H416" t="n">
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J416" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F417" t="n">
+        <v>148721.2849</v>
+      </c>
+      <c r="G417" t="n">
+        <v>20357038.20501909</v>
+      </c>
+      <c r="H417" t="n">
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J417" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F418" t="n">
+        <v>34480.2531</v>
+      </c>
+      <c r="G418" t="n">
+        <v>20357038.20501909</v>
+      </c>
+      <c r="H418" t="n">
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J418" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F419" t="n">
+        <v>619289.8</v>
+      </c>
+      <c r="G419" t="n">
+        <v>19737748.40501909</v>
+      </c>
+      <c r="H419" t="n">
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J419" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K419" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="C377" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D377" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="E377" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="F377" t="n">
-        <v>6104.6611</v>
-      </c>
-      <c r="G377" t="n">
-        <v>19782526.9927048</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C378" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D378" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E378" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F378" t="n">
-        <v>189472.6312</v>
-      </c>
-      <c r="G378" t="n">
-        <v>19593054.3615048</v>
-      </c>
-      <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="C379" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D379" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E379" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F379" t="n">
-        <v>1089222.6368</v>
-      </c>
-      <c r="G379" t="n">
-        <v>19593054.3615048</v>
-      </c>
-      <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C380" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="D380" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="E380" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F380" t="n">
-        <v>822113.1128999999</v>
-      </c>
-      <c r="G380" t="n">
-        <v>20415167.4744048</v>
-      </c>
-      <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C381" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="D381" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E381" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F381" t="n">
-        <v>74619</v>
-      </c>
-      <c r="G381" t="n">
-        <v>20340548.4744048</v>
-      </c>
-      <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C382" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D382" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E382" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F382" t="n">
-        <v>62180.0741</v>
-      </c>
-      <c r="G382" t="n">
-        <v>20278368.4003048</v>
-      </c>
-      <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="C383" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D383" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E383" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F383" t="n">
-        <v>118575.7573</v>
-      </c>
-      <c r="G383" t="n">
-        <v>20159792.6430048</v>
-      </c>
-      <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="C384" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D384" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E384" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F384" t="n">
-        <v>6471</v>
-      </c>
-      <c r="G384" t="n">
-        <v>20166263.6430048</v>
-      </c>
-      <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C385" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D385" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E385" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F385" t="n">
-        <v>230172.0302</v>
-      </c>
-      <c r="G385" t="n">
-        <v>20166263.6430048</v>
-      </c>
-      <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="C386" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D386" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E386" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F386" t="n">
-        <v>56155.93491428572</v>
-      </c>
-      <c r="G386" t="n">
-        <v>20222419.57791908</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C387" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D387" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="E387" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F387" t="n">
-        <v>133637</v>
-      </c>
-      <c r="G387" t="n">
-        <v>20356056.57791908</v>
-      </c>
-      <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="C388" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="D388" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="E388" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="F388" t="n">
-        <v>100</v>
-      </c>
-      <c r="G388" t="n">
-        <v>20356156.57791908</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C389" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D389" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E389" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F389" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G389" t="n">
-        <v>20336156.57791908</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C390" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D390" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E390" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F390" t="n">
-        <v>107408.142</v>
-      </c>
-      <c r="G390" t="n">
-        <v>20228748.43591908</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="C391" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D391" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E391" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F391" t="n">
-        <v>11187.8136</v>
-      </c>
-      <c r="G391" t="n">
-        <v>20239936.24951908</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="C392" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D392" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E392" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F392" t="n">
-        <v>27162.6474</v>
-      </c>
-      <c r="G392" t="n">
-        <v>20212773.60211908</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C393" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D393" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E393" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F393" t="n">
-        <v>33630</v>
-      </c>
-      <c r="G393" t="n">
-        <v>20212773.60211908</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="C394" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D394" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E394" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F394" t="n">
-        <v>30830.3988</v>
-      </c>
-      <c r="G394" t="n">
-        <v>20212773.60211908</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C395" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D395" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E395" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F395" t="n">
-        <v>8958.713100000001</v>
-      </c>
-      <c r="G395" t="n">
-        <v>20221732.31521909</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C396" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D396" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="E396" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F396" t="n">
-        <v>403075.9192</v>
-      </c>
-      <c r="G396" t="n">
-        <v>20624808.23441909</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="C397" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D397" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="E397" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="F397" t="n">
-        <v>5435.0073</v>
-      </c>
-      <c r="G397" t="n">
-        <v>20624808.23441909</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="C398" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="D398" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="E398" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="F398" t="n">
-        <v>33950</v>
-      </c>
-      <c r="G398" t="n">
-        <v>20658758.23441909</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="C399" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="D399" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E399" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F399" t="n">
-        <v>471637.2531</v>
-      </c>
-      <c r="G399" t="n">
-        <v>21130395.48751909</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="C400" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D400" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E400" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F400" t="n">
-        <v>97350</v>
-      </c>
-      <c r="G400" t="n">
-        <v>21033045.48751909</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C401" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D401" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E401" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F401" t="n">
-        <v>41077.7131</v>
-      </c>
-      <c r="G401" t="n">
-        <v>21033045.48751909</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C402" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D402" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E402" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F402" t="n">
-        <v>80718.6649</v>
-      </c>
-      <c r="G402" t="n">
-        <v>21033045.48751909</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="C403" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D403" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="E403" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F403" t="n">
-        <v>18423.7708</v>
-      </c>
-      <c r="G403" t="n">
-        <v>21033045.48751909</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C404" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D404" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E404" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F404" t="n">
-        <v>4997.9662</v>
-      </c>
-      <c r="G404" t="n">
-        <v>21033045.48751909</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="C405" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="D405" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="E405" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F405" t="n">
-        <v>20289.9018</v>
-      </c>
-      <c r="G405" t="n">
-        <v>21033045.48751909</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="C406" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="D406" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E406" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F406" t="n">
-        <v>654798.4304</v>
-      </c>
-      <c r="G406" t="n">
-        <v>20378247.05711909</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="C407" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D407" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E407" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F407" t="n">
-        <v>442582.2518</v>
-      </c>
-      <c r="G407" t="n">
-        <v>20820829.30891909</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="C408" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D408" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E408" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F408" t="n">
-        <v>822475.8064</v>
-      </c>
-      <c r="G408" t="n">
-        <v>20820829.30891909</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="C409" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="D409" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E409" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F409" t="n">
-        <v>880958.5924</v>
-      </c>
-      <c r="G409" t="n">
-        <v>19939870.71651909</v>
-      </c>
-      <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="C410" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D410" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E410" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F410" t="n">
-        <v>435043.7328</v>
-      </c>
-      <c r="G410" t="n">
-        <v>20374914.44931909</v>
-      </c>
-      <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="C411" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D411" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E411" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F411" t="n">
-        <v>576101.2798</v>
-      </c>
-      <c r="G411" t="n">
-        <v>20374914.44931909</v>
-      </c>
-      <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="C412" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D412" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E412" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F412" t="n">
-        <v>87267.56110000001</v>
-      </c>
-      <c r="G412" t="n">
-        <v>20374914.44931909</v>
-      </c>
-      <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="C413" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D413" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E413" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F413" t="n">
-        <v>15.5234</v>
-      </c>
-      <c r="G413" t="n">
-        <v>20374914.44931909</v>
-      </c>
-      <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="C414" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D414" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E414" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F414" t="n">
-        <v>155126.1957</v>
-      </c>
-      <c r="G414" t="n">
-        <v>20374914.44931909</v>
-      </c>
-      <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="C415" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D415" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="E415" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F415" t="n">
-        <v>3924.0308</v>
-      </c>
-      <c r="G415" t="n">
-        <v>20374914.44931909</v>
-      </c>
-      <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="C416" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="D416" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E416" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F416" t="n">
-        <v>17876.2443</v>
-      </c>
-      <c r="G416" t="n">
-        <v>20357038.20501909</v>
-      </c>
-      <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="C417" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="D417" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E417" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F417" t="n">
-        <v>148721.2849</v>
-      </c>
-      <c r="G417" t="n">
-        <v>20357038.20501909</v>
-      </c>
-      <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="C418" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="D418" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E418" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F418" t="n">
-        <v>34480.2531</v>
-      </c>
-      <c r="G418" t="n">
-        <v>20357038.20501909</v>
-      </c>
-      <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="C419" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D419" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E419" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="F419" t="n">
-        <v>619289.8</v>
-      </c>
-      <c r="G419" t="n">
-        <v>19737748.40501909</v>
-      </c>
-      <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14463,12 +14325,14 @@
         <v>19737748.40501909</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>2.75</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14502,12 +14366,14 @@
         <v>19664478.17001909</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>2.75</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14541,12 +14407,14 @@
         <v>19684478.17001909</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>2.73</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14580,12 +14448,14 @@
         <v>19659779.30491909</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>2.76</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14619,12 +14489,14 @@
         <v>19619395.68941909</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>2.75</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14658,12 +14530,14 @@
         <v>19619395.68941909</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>2.73</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14697,12 +14571,14 @@
         <v>19619395.68941909</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>2.73</v>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14736,12 +14612,14 @@
         <v>19632688.35831909</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>2.73</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14775,12 +14653,14 @@
         <v>19644894.12231909</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>2.77</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14814,12 +14694,14 @@
         <v>19767020.69941909</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>2.78</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14853,12 +14735,14 @@
         <v>19767020.69941909</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>2.81</v>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14892,12 +14776,14 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>2.81</v>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14931,12 +14817,14 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>2.8</v>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14970,12 +14858,14 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>2.8</v>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15009,12 +14899,14 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>2.8</v>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,12 +14940,14 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>2.8</v>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15087,12 +14981,14 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>2.8</v>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15126,12 +15022,14 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>2.8</v>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,12 +15063,14 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>2.8</v>
       </c>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15204,12 +15104,14 @@
         <v>19079216.32381909</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>2.8</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15243,12 +15145,14 @@
         <v>19079216.32381909</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>2.77</v>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15282,12 +15186,14 @@
         <v>19059216.32381909</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>2.77</v>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15321,10 +15227,14 @@
         <v>19078735.16851909</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J442" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15358,10 +15268,14 @@
         <v>19078735.16851909</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J443" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15395,10 +15309,14 @@
         <v>19072700.22411909</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J444" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15432,12 +15350,14 @@
         <v>19072700.22411909</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>2.76</v>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15471,10 +15391,14 @@
         <v>19023963.76211908</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J446" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15508,10 +15432,14 @@
         <v>19023963.76211908</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J447" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15545,10 +15473,14 @@
         <v>19023963.76211908</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J448" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15582,12 +15514,14 @@
         <v>19068956.67551909</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>2.75</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15621,12 +15555,14 @@
         <v>19159735.67551909</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>2.76</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15660,12 +15596,14 @@
         <v>19304217.67551909</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>2.79</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15699,12 +15637,14 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>2.83</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15738,12 +15678,14 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>2.81</v>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15777,12 +15719,14 @@
         <v>19292867.47201909</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>2.81</v>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15816,12 +15760,14 @@
         <v>19318592.48581909</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>2.8</v>
       </c>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15855,12 +15801,14 @@
         <v>19333905.75751908</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>2.81</v>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15894,12 +15842,14 @@
         <v>19396510.97971908</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>2.83</v>
       </c>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15933,10 +15883,14 @@
         <v>19946388.61421908</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J458" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15970,12 +15924,14 @@
         <v>19897357.18531908</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>2.87</v>
       </c>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16009,10 +15965,14 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J460" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16046,10 +16006,14 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J461" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16086,7 +16050,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,10 +16086,14 @@
         <v>20131273.49321909</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J463" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16160,7 +16130,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16194,10 +16166,14 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J465" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,10 +16207,14 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J466" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16268,12 +16248,14 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>2.88</v>
       </c>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16307,10 +16289,14 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J468" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16344,10 +16330,14 @@
         <v>20129317.30881909</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J469" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16381,12 +16371,14 @@
         <v>20273799.30881909</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>2.84</v>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16420,12 +16412,14 @@
         <v>20726424.86437464</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>2.87</v>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16459,10 +16453,14 @@
         <v>20661999.33997464</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J472" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16496,10 +16494,14 @@
         <v>20625387.98747464</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J473" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16533,10 +16535,14 @@
         <v>20619482.04877464</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J474" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16570,10 +16576,14 @@
         <v>20825946.90137464</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J475" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16607,10 +16617,14 @@
         <v>20775304.90137464</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J476" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16644,10 +16658,14 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J477" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16681,10 +16699,14 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J478" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16718,10 +16740,14 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J479" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16755,10 +16781,14 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J480" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16795,7 +16825,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16832,7 +16864,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16866,10 +16900,14 @@
         <v>20225658.60867464</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J483" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16903,10 +16941,14 @@
         <v>20334408.60867464</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J484" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16940,10 +16982,14 @@
         <v>21159808.60867464</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J485" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16980,7 +17026,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17017,7 +17065,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17054,7 +17104,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17091,7 +17143,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17128,7 +17182,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17165,7 +17221,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17202,7 +17260,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17239,7 +17299,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17276,7 +17338,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17313,7 +17377,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17350,7 +17416,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17387,7 +17455,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17424,7 +17494,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17461,7 +17533,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17498,7 +17572,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17535,7 +17611,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17572,7 +17650,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17609,7 +17689,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17646,7 +17728,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17683,7 +17767,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17720,7 +17806,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17757,7 +17845,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17794,7 +17884,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>2.76</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17806,6 +17898,6 @@
       <c r="M508" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-17 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>26646650.56327144</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>27259764.46799505</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>26857233.98729505</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>23598639.67899505</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>21264662.80449505</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>20479933.30899505</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>19633610.09029505</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>20290102.40979505</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>21670333.84619505</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>21222126.70939505</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>21160937.70939505</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>20737965.33449506</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>20737965.33449506</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>20760104.13689506</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>25071003.87189506</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>33282022.08079506</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>32776208.50809506</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>32605140.62419505</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>31133291.23669505</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>32113080.09109505</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>31673829.68569505</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>31990451.53989505</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>32050547.42269506</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>32050547.42269506</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>32212532.23949505</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>32212532.23949505</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>32410794.60959506</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>32260794.60959506</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>32252204.98699506</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>32216054.98699506</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>32216054.98699506</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>32044935.39079506</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>33158180.46219506</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>33211615.11139506</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>33556702.54709506</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>32977590.84399506</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>32977590.84399506</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>33477568.69069506</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>28051347.77479506</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>28073972.02939506</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>27926445.51859506</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>27908134.50299506</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>26228932.18869506</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>25252597.28359507</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>25146415.89729507</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>25134022.13699507</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>26040784.19729507</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>25735298.14579507</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>25534151.34499507</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>25908274.93419507</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>25904114.51099507</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>25910064.54409507</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>25910064.54409507</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>25910046.54409507</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>26072461.58629507</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>25740217.79399507</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>24637468.51565063</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>24860641.23955063</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>24700869.23955063</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>24704869.23955063</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>24690749.06465063</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>24704749.06465063</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>24704749.06465063</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>24859776.39865297</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>24294340.26175297</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>25230932.88475297</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>25487556.22245296</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>25460711.39165296</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>25461697.48435296</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>25146759.66595297</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>25419649.94215297</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>24930372.41375297</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>25061869.70375296</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>25061869.70375296</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>24118445.19755296</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>23773223.19755296</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>23819725.91565296</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>23710994.98135296</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>23957258.98135296</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>24097295.93390479</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>23948308.57940479</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>23948308.57940479</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>23495000.19880479</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>23053732.71660479</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>23084982.49750479</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>23084982.49750479</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>22784982.49750479</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>22784982.49750479</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>23148422.43030479</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>23148422.43030479</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>22363822.43030479</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>22400585.88920479</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -13849,14 +13849,10 @@
         <v>20820829.30891909</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J408" t="n">
-        <v>2.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
@@ -13894,11 +13890,7 @@
       <c r="J409" t="n">
         <v>2.77</v>
       </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13976,7 +13968,11 @@
       <c r="J411" t="n">
         <v>2.77</v>
       </c>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14013,11 +14009,7 @@
       <c r="J412" t="n">
         <v>2.77</v>
       </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14095,7 +14087,11 @@
       <c r="J414" t="n">
         <v>2.77</v>
       </c>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14132,11 +14128,7 @@
       <c r="J415" t="n">
         <v>2.77</v>
       </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14212,9 +14204,13 @@
         <v>2.76</v>
       </c>
       <c r="J417" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K417" t="inlineStr"/>
+        <v>2.77</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14251,11 +14247,7 @@
       <c r="J418" t="n">
         <v>2.76</v>
       </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14776,11 +14768,9 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>2.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
         <v>2.76</v>
       </c>
@@ -14817,11 +14807,9 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
         <v>2.76</v>
       </c>
@@ -14858,11 +14846,9 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
         <v>2.76</v>
       </c>
@@ -14899,11 +14885,9 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
         <v>2.76</v>
       </c>
@@ -14940,11 +14924,9 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
         <v>2.76</v>
       </c>
@@ -14981,11 +14963,9 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
         <v>2.76</v>
       </c>
@@ -15022,11 +15002,9 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
         <v>2.76</v>
       </c>
@@ -15063,11 +15041,9 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
         <v>2.76</v>
       </c>
@@ -15104,11 +15080,9 @@
         <v>19079216.32381909</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
         <v>2.76</v>
       </c>
@@ -15637,11 +15611,9 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>2.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
         <v>2.76</v>
       </c>
@@ -15678,11 +15650,9 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>2.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
         <v>2.76</v>
       </c>
@@ -15719,11 +15689,9 @@
         <v>19292867.47201909</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>2.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
         <v>2.76</v>
       </c>
@@ -15760,11 +15728,9 @@
         <v>19318592.48581909</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
         <v>2.76</v>
       </c>
@@ -15801,11 +15767,9 @@
         <v>19333905.75751908</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>2.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
         <v>2.76</v>
       </c>
@@ -15842,11 +15806,9 @@
         <v>19396510.97971908</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>2.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
         <v>2.76</v>
       </c>
@@ -15883,11 +15845,9 @@
         <v>19946388.61421908</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>2.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
         <v>2.76</v>
       </c>
@@ -15924,21 +15884,19 @@
         <v>19897357.18531908</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>2.87</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
         <v>2.76</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L459" t="n">
-        <v>1</v>
+        <v>1.027608695652174</v>
       </c>
       <c r="M459" t="inlineStr"/>
     </row>
@@ -15965,19 +15923,11 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J460" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16006,19 +15956,11 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J461" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16047,17 +15989,11 @@
         <v>20187599.17151909</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16086,19 +16022,11 @@
         <v>20131273.49321909</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J463" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16127,17 +16055,11 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16166,19 +16088,11 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J465" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16207,19 +16121,11 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J466" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16248,19 +16154,11 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J467" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16289,19 +16187,11 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J468" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16330,19 +16220,11 @@
         <v>20129317.30881909</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J469" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16371,19 +16253,11 @@
         <v>20273799.30881909</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J470" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16412,19 +16286,11 @@
         <v>20726424.86437464</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="J471" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16453,19 +16319,11 @@
         <v>20661999.33997464</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J472" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16494,19 +16352,11 @@
         <v>20625387.98747464</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J473" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16535,19 +16385,11 @@
         <v>20619482.04877464</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="J474" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16576,19 +16418,11 @@
         <v>20825946.90137464</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J475" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16617,19 +16451,11 @@
         <v>20775304.90137464</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J476" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16658,19 +16484,11 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="J477" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16699,19 +16517,11 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J478" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16740,19 +16550,11 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J479" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16781,19 +16583,11 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J480" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16825,14 +16619,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16864,14 +16652,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16900,19 +16682,11 @@
         <v>20225658.60867464</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="J483" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16941,19 +16715,11 @@
         <v>20334408.60867464</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J484" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16982,19 +16748,11 @@
         <v>21159808.60867464</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J485" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17023,17 +16781,11 @@
         <v>23601517.85347464</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17062,17 +16814,11 @@
         <v>22766402.60087464</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17101,17 +16847,11 @@
         <v>22855662.60087464</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17140,17 +16880,11 @@
         <v>22939234.43647464</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17179,17 +16913,11 @@
         <v>22479034.43057464</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17218,17 +16946,11 @@
         <v>22333319.65397464</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17257,17 +16979,11 @@
         <v>23122167.37787465</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17296,17 +17012,11 @@
         <v>22255977.36887465</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17335,17 +17045,11 @@
         <v>22181237.99537465</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17374,17 +17078,11 @@
         <v>22243993.22287465</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17413,17 +17111,11 @@
         <v>22205803.22287465</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17452,17 +17144,11 @@
         <v>22389519.85807465</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17491,17 +17177,11 @@
         <v>22389519.85807465</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17530,17 +17210,11 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17569,17 +17243,11 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17608,17 +17276,11 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17650,14 +17312,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17689,14 +17345,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17728,14 +17378,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17767,14 +17411,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17806,14 +17444,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17845,14 +17477,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17884,20 +17510,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
       <c r="M508" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest ANKR.xlsx
+++ b/BackTest/2019-10-17 BackTest ANKR.xlsx
@@ -451,7 +451,7 @@
         <v>26646650.56327144</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>27259764.46799505</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>26687982.62719505</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>28408489.99859505</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>27714382.55759505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>27387183.21969505</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>26857233.98729505</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>24500987.88049505</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>23598639.67899505</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>21264662.80449505</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>20479933.30899505</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>32776208.50809506</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>32776208.50809506</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>32605140.62419505</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>32605140.62419505</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>32859770.49629505</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>32034223.96209505</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>31669978.05469505</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>31669978.05469505</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>31948763.15549505</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>31323968.57519505</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>31357614.31649505</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>31500825.05389505</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>31673829.68569505</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>31990451.53989505</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>32050547.42269506</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>32050547.42269506</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>32045747.42269506</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>31992332.23949505</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>32212532.23949505</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>32399944.23949505</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>32399944.23949505</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>32394829.61679506</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>32384400.37139506</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>32130421.53539506</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>32641664.58739506</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>32468998.92829506</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>32468998.92829506</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>32629073.7818699</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>32156978.1728699</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>32410794.60959506</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>32260794.60959506</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>32252204.98699506</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>32216054.98699506</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>34448766.06479505</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>34448766.06479505</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>34454643.42319506</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>34296511.63939506</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>34227641.63939506</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>34227641.63939506</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>34290630.89049505</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>33876220.10989506</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>25687920.17859507</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>25429608.75189507</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>25252597.28359507</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>25146415.89729507</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>25134022.13699507</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>25162896.09649507</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>26040784.19729507</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>25735298.14579507</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>25534151.34499507</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>25908274.93419507</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>25904114.51099507</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>25910064.54409507</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>25910064.54409507</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>25910046.54409507</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>26072461.58629507</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>25740217.79399507</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>24637468.51565063</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>24860641.23955063</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>24700869.23955063</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>24704869.23955063</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>24690749.06465063</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>24704749.06465063</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>24704749.06465063</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>24859776.39865297</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>24294340.26175297</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>25230932.88475297</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>25250932.88475297</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>25487556.22245296</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>25460711.39165296</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>25461697.48435296</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>25146759.66595297</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>25419649.94215297</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>24930372.41375297</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>25061869.70375296</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>25061869.70375296</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>24390363.31175296</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>24118445.19755296</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>23773223.19755296</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>23819725.91565296</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>23710994.98135296</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>23957258.98135296</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>24097295.93390479</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>23948308.57940479</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>23948308.57940479</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>23495000.19880479</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>23053732.71660479</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>23084982.49750479</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>23084982.49750479</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>22784982.49750479</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>22784982.49750479</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>23148422.43030479</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>23148422.43030479</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>22363822.43030479</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>22400585.88920479</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10087,11 +10087,17 @@
         <v>21780381.67110479</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10126,17 @@
         <v>22190476.95440479</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10169,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10206,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10239,17 @@
         <v>21685459.07900479</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10278,17 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10317,17 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10356,17 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10395,17 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10434,17 @@
         <v>21416029.0791048</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10473,17 @@
         <v>21421196.5743048</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10512,17 @@
         <v>21419029.5743048</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10551,17 @@
         <v>21520856.7547048</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10590,17 @@
         <v>21520254.1812048</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10629,17 @@
         <v>21539651.6077048</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10668,17 @@
         <v>21539651.6077048</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10707,17 @@
         <v>21536394.27090479</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10746,17 @@
         <v>21569827.07110479</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10785,17 @@
         <v>21569827.07110479</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10824,17 @@
         <v>21569917.8245048</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10863,17 @@
         <v>21569917.8245048</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>2.92</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10902,17 @@
         <v>22160734.0710048</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>2.92</v>
+      </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +10941,17 @@
         <v>26148697.8199048</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>2.93</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +10984,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11021,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11058,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11091,17 @@
         <v>25707082.1415048</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>2.91</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11130,17 @@
         <v>25726742.1415048</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11173,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11210,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11247,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11284,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11321,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11354,17 @@
         <v>24639692.2447048</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11393,17 @@
         <v>24639692.2447048</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11432,17 @@
         <v>24639692.2447048</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11471,17 @@
         <v>24683480.2650048</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11510,17 @@
         <v>24683480.2650048</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>2.91</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11553,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11590,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11627,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11664,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11701,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11738,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11775,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11812,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11849,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +11886,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11923,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11960,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11997,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12034,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12071,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12108,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12145,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12178,17 @@
         <v>23414161.0325048</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12221,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12254,17 @@
         <v>23375674.7432048</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2.86</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12297,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12334,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12371,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12408,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12445,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12482,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12519,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12556,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12593,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12630,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12667,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12704,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12741,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12778,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12815,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12852,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12889,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12926,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12963,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +13000,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +13037,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +13070,17 @@
         <v>19776422.3316048</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +13109,17 @@
         <v>19776422.3316048</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13148,17 @@
         <v>19776422.3316048</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +13191,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13228,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +13261,17 @@
         <v>19593054.3615048</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2.81</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13300,17 @@
         <v>19593054.3615048</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13339,17 @@
         <v>20415167.4744048</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13378,17 @@
         <v>20340548.4744048</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13417,17 @@
         <v>20278368.4003048</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2.83</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13456,17 @@
         <v>20159792.6430048</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2.79</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13495,17 @@
         <v>20166263.6430048</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13534,17 @@
         <v>20166263.6430048</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2.79</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13573,17 @@
         <v>20222419.57791908</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2.79</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13612,17 @@
         <v>20356056.57791908</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13651,17 @@
         <v>20356156.57791908</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2.81</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13690,17 @@
         <v>20336156.57791908</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13729,17 @@
         <v>20228748.43591908</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13768,17 @@
         <v>20239936.24951908</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13807,17 @@
         <v>20212773.60211908</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>2.79</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13846,17 @@
         <v>20212773.60211908</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13885,17 @@
         <v>20212773.60211908</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13924,17 @@
         <v>20221732.31521909</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13963,17 @@
         <v>20624808.23441909</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2.8</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +14002,17 @@
         <v>20624808.23441909</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2.81</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +14041,17 @@
         <v>20658758.23441909</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2.81</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +14080,17 @@
         <v>21130395.48751909</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +14119,17 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2.83</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +14158,17 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +14197,17 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +14236,17 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +14275,17 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +14314,17 @@
         <v>21033045.48751909</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +14353,17 @@
         <v>20378247.05711909</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>2.78</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +14392,17 @@
         <v>20820829.30891909</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>2.76</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +14431,17 @@
         <v>20820829.30891909</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>2.77</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13887,10 +14475,12 @@
       <c r="I409" t="n">
         <v>2.77</v>
       </c>
-      <c r="J409" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13924,12 +14514,10 @@
       <c r="I410" t="n">
         <v>2.76</v>
       </c>
-      <c r="J410" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L410" t="n">
@@ -13965,12 +14553,10 @@
       <c r="I411" t="n">
         <v>2.77</v>
       </c>
-      <c r="J411" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L411" t="n">
@@ -14006,10 +14592,12 @@
       <c r="I412" t="n">
         <v>2.77</v>
       </c>
-      <c r="J412" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14043,12 +14631,10 @@
       <c r="I413" t="n">
         <v>2.77</v>
       </c>
-      <c r="J413" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L413" t="n">
@@ -14084,12 +14670,10 @@
       <c r="I414" t="n">
         <v>2.77</v>
       </c>
-      <c r="J414" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L414" t="n">
@@ -14125,10 +14709,12 @@
       <c r="I415" t="n">
         <v>2.77</v>
       </c>
-      <c r="J415" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14162,12 +14748,10 @@
       <c r="I416" t="n">
         <v>2.77</v>
       </c>
-      <c r="J416" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L416" t="n">
@@ -14203,12 +14787,10 @@
       <c r="I417" t="n">
         <v>2.76</v>
       </c>
-      <c r="J417" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L417" t="n">
@@ -14244,10 +14826,12 @@
       <c r="I418" t="n">
         <v>2.76</v>
       </c>
-      <c r="J418" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14281,12 +14865,10 @@
       <c r="I419" t="n">
         <v>2.76</v>
       </c>
-      <c r="J419" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L419" t="n">
@@ -14322,9 +14904,7 @@
       <c r="I420" t="n">
         <v>2.75</v>
       </c>
-      <c r="J420" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14363,9 +14943,7 @@
       <c r="I421" t="n">
         <v>2.75</v>
       </c>
-      <c r="J421" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14404,9 +14982,7 @@
       <c r="I422" t="n">
         <v>2.73</v>
       </c>
-      <c r="J422" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14445,9 +15021,7 @@
       <c r="I423" t="n">
         <v>2.76</v>
       </c>
-      <c r="J423" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14486,9 +15060,7 @@
       <c r="I424" t="n">
         <v>2.75</v>
       </c>
-      <c r="J424" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14527,9 +15099,7 @@
       <c r="I425" t="n">
         <v>2.73</v>
       </c>
-      <c r="J425" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14568,9 +15138,7 @@
       <c r="I426" t="n">
         <v>2.73</v>
       </c>
-      <c r="J426" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14609,9 +15177,7 @@
       <c r="I427" t="n">
         <v>2.73</v>
       </c>
-      <c r="J427" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14650,9 +15216,7 @@
       <c r="I428" t="n">
         <v>2.77</v>
       </c>
-      <c r="J428" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14691,9 +15255,7 @@
       <c r="I429" t="n">
         <v>2.78</v>
       </c>
-      <c r="J429" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14732,9 +15294,7 @@
       <c r="I430" t="n">
         <v>2.81</v>
       </c>
-      <c r="J430" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14768,12 +15328,12 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14807,12 +15367,12 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14846,12 +15406,12 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14885,12 +15445,12 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14924,12 +15484,12 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14963,12 +15523,12 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15002,12 +15562,12 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15041,12 +15601,12 @@
         <v>19763979.49751909</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15080,12 +15640,12 @@
         <v>19079216.32381909</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15124,9 +15684,7 @@
       <c r="I440" t="n">
         <v>2.77</v>
       </c>
-      <c r="J440" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,9 +15723,7 @@
       <c r="I441" t="n">
         <v>2.77</v>
       </c>
-      <c r="J441" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15206,9 +15762,7 @@
       <c r="I442" t="n">
         <v>2.74</v>
       </c>
-      <c r="J442" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,9 +15801,7 @@
       <c r="I443" t="n">
         <v>2.77</v>
       </c>
-      <c r="J443" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15288,9 +15840,7 @@
       <c r="I444" t="n">
         <v>2.77</v>
       </c>
-      <c r="J444" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15329,9 +15879,7 @@
       <c r="I445" t="n">
         <v>2.76</v>
       </c>
-      <c r="J445" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15370,9 +15918,7 @@
       <c r="I446" t="n">
         <v>2.76</v>
       </c>
-      <c r="J446" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15411,9 +15957,7 @@
       <c r="I447" t="n">
         <v>2.75</v>
       </c>
-      <c r="J447" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15452,9 +15996,7 @@
       <c r="I448" t="n">
         <v>2.75</v>
       </c>
-      <c r="J448" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15493,9 +16035,7 @@
       <c r="I449" t="n">
         <v>2.75</v>
       </c>
-      <c r="J449" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15534,9 +16074,7 @@
       <c r="I450" t="n">
         <v>2.76</v>
       </c>
-      <c r="J450" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15575,9 +16113,7 @@
       <c r="I451" t="n">
         <v>2.79</v>
       </c>
-      <c r="J451" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15611,12 +16147,12 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15650,12 +16186,12 @@
         <v>19297311.47201909</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15689,12 +16225,12 @@
         <v>19292867.47201909</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15728,12 +16264,12 @@
         <v>19318592.48581909</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15767,12 +16303,12 @@
         <v>19333905.75751908</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15806,12 +16342,12 @@
         <v>19396510.97971908</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15845,12 +16381,12 @@
         <v>19946388.61421908</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15884,19 +16420,19 @@
         <v>19897357.18531908</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L459" t="n">
-        <v>1.027608695652174</v>
+        <v>1</v>
       </c>
       <c r="M459" t="inlineStr"/>
     </row>
@@ -15923,11 +16459,17 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2.85</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15956,11 +16498,17 @@
         <v>20041884.39491909</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15989,11 +16537,17 @@
         <v>20187599.17151909</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16022,11 +16576,17 @@
         <v>20131273.49321909</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2.91</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16055,11 +16615,17 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16088,11 +16654,17 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16121,11 +16693,17 @@
         <v>20131230.64551909</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16154,11 +16732,17 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16187,11 +16771,17 @@
         <v>20131020.39371908</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2.86</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16220,11 +16810,17 @@
         <v>20129317.30881909</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2.86</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16253,11 +16849,17 @@
         <v>20273799.30881909</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16286,11 +16888,17 @@
         <v>20726424.86437464</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16319,11 +16927,17 @@
         <v>20661999.33997464</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16352,11 +16966,17 @@
         <v>20625387.98747464</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2.85</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +17005,17 @@
         <v>20619482.04877464</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2.83</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16418,11 +17044,17 @@
         <v>20825946.90137464</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16451,11 +17083,17 @@
         <v>20775304.90137464</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2.85</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16484,11 +17122,17 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2.83</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16517,11 +17161,17 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16550,11 +17200,17 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16583,11 +17239,17 @@
         <v>20827377.90137464</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16616,11 +17278,17 @@
         <v>20979816.90137464</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16649,11 +17317,17 @@
         <v>20240151.97547464</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2.86</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16682,11 +17356,17 @@
         <v>20225658.60867464</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2.83</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16715,11 +17395,17 @@
         <v>20334408.60867464</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16748,11 +17434,17 @@
         <v>21159808.60867464</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16781,11 +17473,17 @@
         <v>23601517.85347464</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16814,11 +17512,17 @@
         <v>22766402.60087464</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2.91</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16847,11 +17551,17 @@
         <v>22855662.60087464</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16880,11 +17590,17 @@
         <v>22939234.43647464</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>2.91</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16913,11 +17629,17 @@
         <v>22479034.43057464</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>2.92</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16946,11 +17668,17 @@
         <v>22333319.65397464</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16979,11 +17707,17 @@
         <v>23122167.37787465</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17012,11 +17746,17 @@
         <v>22255977.36887465</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17045,11 +17785,17 @@
         <v>22181237.99537465</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17078,11 +17824,17 @@
         <v>22243993.22287465</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>2.81</v>
+      </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17111,11 +17863,17 @@
         <v>22205803.22287465</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>2.84</v>
+      </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17144,11 +17902,17 @@
         <v>22389519.85807465</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2.83</v>
+      </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17177,11 +17941,17 @@
         <v>22389519.85807465</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17210,11 +17980,17 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17243,11 +18019,17 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17276,11 +18058,17 @@
         <v>22148998.64577465</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17309,11 +18097,17 @@
         <v>21964429.28117465</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17342,11 +18136,17 @@
         <v>22063039.28117465</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2.85</v>
+      </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17375,11 +18175,17 @@
         <v>22394679.48517465</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17408,11 +18214,17 @@
         <v>22391360.69377465</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>2.93</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17441,11 +18253,17 @@
         <v>22323767.48517465</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17474,11 +18292,17 @@
         <v>22359055.48517465</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17507,11 +18331,17 @@
         <v>22739499.27357465</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
